--- a/Jogos_da_Semana_FlashScore_2025-01-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-25.xlsx
@@ -701,13 +701,13 @@
         <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -722,16 +722,16 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="n">
         <v>1.36</v>
@@ -740,16 +740,16 @@
         <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>9.5</v>
@@ -761,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -776,13 +776,13 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -845,7 +845,7 @@
         <v>2.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -896,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H4" t="n">
         <v>12</v>
@@ -1115,34 +1115,34 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
         <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J5" t="n">
         <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="n">
         <v>1.44</v>
@@ -1193,13 +1193,13 @@
         <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
@@ -1208,7 +1208,7 @@
         <v>9.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM5" t="n">
         <v>12</v>
@@ -1256,22 +1256,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="J6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1298,7 +1298,7 @@
         <v>1.44</v>
       </c>
       <c r="U6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V6" t="n">
         <v>3.25</v>
@@ -1331,13 +1331,13 @@
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="n">
         <v>351</v>
@@ -1403,58 +1403,58 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="V7" t="n">
         <v>4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>9.5</v>
@@ -1478,13 +1478,13 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
         <v>81</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>23</v>
@@ -1538,16 +1538,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1580,7 +1580,7 @@
         <v>1.44</v>
       </c>
       <c r="U8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V8" t="n">
         <v>3.25</v>
@@ -1721,7 +1721,7 @@
         <v>1.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V9" t="n">
         <v>2.75</v>
@@ -1829,10 +1829,10 @@
         <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K10" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
@@ -1862,7 +1862,7 @@
         <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="V10" t="n">
         <v>4</v>
@@ -2003,7 +2003,7 @@
         <v>1.36</v>
       </c>
       <c r="U11" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V11" t="n">
         <v>2.75</v>
@@ -2120,10 +2120,10 @@
         <v>4.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
         <v>1.14</v>
@@ -2262,7 +2262,7 @@
         <v>2.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2277,16 +2277,16 @@
         <v>6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
         <v>1.22</v>
@@ -2547,10 +2547,10 @@
         <v>2.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
         <v>1.17</v>
@@ -2634,10 +2634,10 @@
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2840,7 +2840,7 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -2996,22 +2996,22 @@
         <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="X18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y18" t="n">
         <v>6</v>
@@ -3067,10 +3067,10 @@
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J19" t="n">
         <v>4.5</v>
@@ -3282,10 +3282,10 @@
         <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U20" t="n">
         <v>1.17</v>
@@ -3303,7 +3303,7 @@
         <v>13</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA20" t="n">
         <v>12</v>
@@ -3342,13 +3342,13 @@
         <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="n">
         <v>101</v>
       </c>
       <c r="AO20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
@@ -3444,10 +3444,10 @@
         <v>7.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="n">
         <v>21</v>
@@ -3471,7 +3471,7 @@
         <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ21" t="n">
         <v>9</v>
@@ -3534,13 +3534,13 @@
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L22" t="n">
         <v>4.33</v>
@@ -3564,10 +3564,10 @@
         <v>1.53</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U22" t="n">
         <v>1.57</v>
@@ -3576,10 +3576,10 @@
         <v>2.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y22" t="n">
         <v>6</v>
@@ -3600,13 +3600,13 @@
         <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF22" t="n">
         <v>6</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
         <v>67</v>
@@ -3615,10 +3615,10 @@
         <v>501</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
         <v>13</v>
@@ -3635,10 +3635,10 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="23">
@@ -3682,10 +3682,10 @@
         <v>4.75</v>
       </c>
       <c r="J23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L23" t="n">
         <v>4.75</v>
@@ -3709,10 +3709,10 @@
         <v>2.3</v>
       </c>
       <c r="S23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U23" t="n">
         <v>1.3</v>
@@ -3748,7 +3748,7 @@
         <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
@@ -3760,7 +3760,7 @@
         <v>151</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
         <v>26</v>
@@ -3778,10 +3778,10 @@
         <v>34</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>2.38</v>
@@ -3872,13 +3872,13 @@
         <v>1.67</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z24" t="n">
         <v>7</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB24" t="n">
         <v>13</v>
@@ -3899,7 +3899,7 @@
         <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI24" t="n">
         <v>501</v>
@@ -3920,7 +3920,7 @@
         <v>41</v>
       </c>
       <c r="AO24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -3969,7 +3969,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="J25" t="n">
         <v>8.5</v>
@@ -3987,22 +3987,22 @@
         <v>19</v>
       </c>
       <c r="O25" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
         <v>1.22</v>
@@ -4555,19 +4555,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H29" t="n">
         <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L29" t="n">
         <v>2.6</v>
@@ -4579,16 +4579,16 @@
         <v>6.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P29" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S29" t="n">
         <v>5.5</v>
@@ -4597,46 +4597,46 @@
         <v>1.14</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W29" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X29" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="n">
         <v>51</v>
       </c>
       <c r="AC29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD29" t="n">
         <v>51</v>
       </c>
       <c r="AE29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF29" t="n">
         <v>6.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI29" t="n">
         <v>501</v>
@@ -4645,13 +4645,13 @@
         <v>5</v>
       </c>
       <c r="AK29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AL29" t="n">
         <v>9.5</v>
       </c>
       <c r="AM29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN29" t="n">
         <v>19</v>
@@ -4660,16 +4660,16 @@
         <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>4.29</v>
+        <v>4.18</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AR29" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="30">
@@ -4758,7 +4758,7 @@
         <v>1.95</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
         <v>13</v>
@@ -4794,7 +4794,7 @@
         <v>8.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL30" t="n">
         <v>10</v>
@@ -4857,7 +4857,7 @@
         <v>2.1</v>
       </c>
       <c r="K31" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L31" t="n">
         <v>4.75</v>
@@ -4893,16 +4893,16 @@
         <v>3.75</v>
       </c>
       <c r="W31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X31" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA31" t="n">
         <v>8.5</v>
@@ -4926,16 +4926,16 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ31" t="n">
         <v>21</v>
       </c>
       <c r="AK31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
         <v>17</v>
@@ -5028,7 +5028,7 @@
         <v>1.44</v>
       </c>
       <c r="U32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V32" t="n">
         <v>3.25</v>
@@ -5131,105 +5131,105 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="J33" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K33" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L33" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R33" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S33" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="U33" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="V33" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="W33" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X33" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z33" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE33" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB33" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>10</v>
-      </c>
       <c r="AF33" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI33" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM33" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AN33" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AO33" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>3.75</v>
@@ -5414,7 +5414,7 @@
         <v>2.05</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
         <v>2.4</v>
@@ -5447,16 +5447,16 @@
         <v>1.62</v>
       </c>
       <c r="U35" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="V35" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W35" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X35" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y35" t="n">
         <v>15</v>
@@ -5471,37 +5471,37 @@
         <v>34</v>
       </c>
       <c r="AC35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD35" t="n">
         <v>23</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI35" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL35" t="n">
         <v>9</v>
       </c>
       <c r="AM35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN35" t="n">
         <v>15</v>
@@ -5510,10 +5510,10 @@
         <v>19</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5592,7 +5592,7 @@
         <v>1.33</v>
       </c>
       <c r="U36" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V36" t="n">
         <v>2.75</v>
@@ -6114,7 +6114,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
         <v>4</v>
@@ -6162,16 +6162,16 @@
         <v>3.4</v>
       </c>
       <c r="W40" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X40" t="n">
         <v>2.1</v>
       </c>
       <c r="Y40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA40" t="n">
         <v>8.5</v>
@@ -6207,22 +6207,22 @@
         <v>29</v>
       </c>
       <c r="AL40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM40" t="n">
         <v>51</v>
       </c>
       <c r="AN40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6307,10 +6307,10 @@
         <v>2.63</v>
       </c>
       <c r="W41" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="X41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y41" t="n">
         <v>5.5</v>
@@ -6411,25 +6411,25 @@
         <v>1.5</v>
       </c>
       <c r="H42" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I42" t="n">
         <v>6.5</v>
       </c>
       <c r="J42" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K42" t="n">
         <v>2.2</v>
       </c>
       <c r="L42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O42" t="n">
         <v>1.3</v>
@@ -6459,7 +6459,7 @@
         <v>2.1</v>
       </c>
       <c r="X42" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y42" t="n">
         <v>6</v>
@@ -6477,7 +6477,7 @@
         <v>13</v>
       </c>
       <c r="AD42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE42" t="n">
         <v>9.5</v>
@@ -6495,13 +6495,13 @@
         <v>101</v>
       </c>
       <c r="AJ42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK42" t="n">
         <v>34</v>
       </c>
       <c r="AL42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM42" t="n">
         <v>67</v>
@@ -6557,22 +6557,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K43" t="n">
         <v>2.05</v>
       </c>
       <c r="L43" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M43" t="n">
         <v>1.07</v>
@@ -6581,10 +6581,10 @@
         <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q43" t="n">
         <v>2.2</v>
@@ -6599,19 +6599,19 @@
         <v>1.22</v>
       </c>
       <c r="U43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W43" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X43" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z43" t="n">
         <v>15</v>
@@ -6623,7 +6623,7 @@
         <v>34</v>
       </c>
       <c r="AC43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD43" t="n">
         <v>41</v>
@@ -6647,16 +6647,16 @@
         <v>7</v>
       </c>
       <c r="AK43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL43" t="n">
         <v>9.5</v>
       </c>
       <c r="AM43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO43" t="n">
         <v>34</v>
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>5</v>
@@ -6728,7 +6728,7 @@
         <v>4.33</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R44" t="n">
         <v>2.15</v>
@@ -6749,7 +6749,7 @@
         <v>2.1</v>
       </c>
       <c r="X44" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y44" t="n">
         <v>7</v>
@@ -6843,22 +6843,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I45" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="J45" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="K45" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L45" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="M45" t="n">
         <v>1.07</v>
@@ -6879,40 +6879,40 @@
         <v>1.78</v>
       </c>
       <c r="S45" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T45" t="n">
         <v>1.3</v>
       </c>
       <c r="U45" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V45" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="W45" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X45" t="n">
         <v>1.65</v>
       </c>
       <c r="Y45" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA45" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB45" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC45" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD45" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE45" t="n">
         <v>7.5</v>
@@ -6924,22 +6924,22 @@
         <v>23</v>
       </c>
       <c r="AH45" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI45" t="n">
         <v>900</v>
       </c>
       <c r="AJ45" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AK45" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AL45" t="n">
         <v>9</v>
       </c>
       <c r="AM45" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AN45" t="n">
         <v>14</v>
@@ -6984,103 +6984,103 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H46" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I46" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="J46" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K46" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L46" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M46" t="n">
         <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P46" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T46" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U46" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V46" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="W46" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X46" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y46" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="Z46" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA46" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AC46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD46" t="n">
         <v>65</v>
       </c>
       <c r="AE46" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AF46" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AG46" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH46" t="n">
         <v>100</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AJ46" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AK46" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AL46" t="n">
         <v>8.75</v>
       </c>
       <c r="AM46" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AN46" t="n">
         <v>15</v>
@@ -7128,10 +7128,10 @@
         <v>2.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J47" t="n">
         <v>3.1</v>
@@ -7143,16 +7143,16 @@
         <v>4.33</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P47" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q47" t="n">
         <v>2.63</v>
@@ -7164,7 +7164,7 @@
         <v>5</v>
       </c>
       <c r="T47" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U47" t="n">
         <v>1.57</v>
@@ -7197,28 +7197,28 @@
         <v>41</v>
       </c>
       <c r="AE47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH47" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI47" t="n">
         <v>501</v>
       </c>
       <c r="AJ47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK47" t="n">
         <v>15</v>
       </c>
       <c r="AL47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM47" t="n">
         <v>41</v>
@@ -7232,10 +7232,10 @@
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
       <c r="AR47" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="48">
@@ -7270,13 +7270,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J48" t="n">
         <v>2.75</v>
@@ -7288,13 +7288,13 @@
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P48" t="n">
         <v>3.75</v>
@@ -7309,7 +7309,7 @@
         <v>3.4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U48" t="n">
         <v>1.4</v>
@@ -7327,7 +7327,7 @@
         <v>8</v>
       </c>
       <c r="Z48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA48" t="n">
         <v>9</v>
@@ -7429,13 +7429,13 @@
         <v>4.33</v>
       </c>
       <c r="M49" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
         <v>9</v>
       </c>
       <c r="O49" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P49" t="n">
         <v>3.4</v>
@@ -7450,7 +7450,7 @@
         <v>3.75</v>
       </c>
       <c r="T49" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U49" t="n">
         <v>1.44</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J50" t="n">
         <v>2.63</v>
@@ -7570,13 +7570,13 @@
         <v>4.75</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O50" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -7591,7 +7591,7 @@
         <v>4.33</v>
       </c>
       <c r="T50" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U50" t="n">
         <v>1.5</v>
@@ -7609,13 +7609,13 @@
         <v>6</v>
       </c>
       <c r="Z50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA50" t="n">
         <v>9</v>
       </c>
       <c r="AB50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
         <v>17</v>
@@ -7639,7 +7639,7 @@
         <v>451</v>
       </c>
       <c r="AJ50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK50" t="n">
         <v>19</v>
@@ -7693,13 +7693,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H51" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I51" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J51" t="n">
         <v>3</v>
@@ -7711,28 +7711,28 @@
         <v>4.33</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N51" t="n">
         <v>7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P51" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R51" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S51" t="n">
         <v>4.5</v>
       </c>
       <c r="T51" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U51" t="n">
         <v>1.53</v>
@@ -7756,7 +7756,7 @@
         <v>9.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="n">
         <v>21</v>
@@ -7783,7 +7783,7 @@
         <v>8</v>
       </c>
       <c r="AK51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL51" t="n">
         <v>13</v>
@@ -7800,10 +7800,10 @@
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
       <c r="AR51" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="52">
@@ -7856,13 +7856,13 @@
         <v>4.75</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
         <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -7877,7 +7877,7 @@
         <v>3</v>
       </c>
       <c r="T52" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U52" t="n">
         <v>1.36</v>
@@ -7910,7 +7910,7 @@
         <v>23</v>
       </c>
       <c r="AE52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF52" t="n">
         <v>7</v>
@@ -7925,10 +7925,10 @@
         <v>201</v>
       </c>
       <c r="AJ52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL52" t="n">
         <v>15</v>
@@ -7937,7 +7937,7 @@
         <v>51</v>
       </c>
       <c r="AN52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO52" t="n">
         <v>41</v>
@@ -7979,13 +7979,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
         <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J53" t="n">
         <v>3.75</v>
@@ -7997,13 +7997,13 @@
         <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
         <v>9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P53" t="n">
         <v>3.2</v>
@@ -8018,7 +8018,7 @@
         <v>3.75</v>
       </c>
       <c r="T53" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U53" t="n">
         <v>1.44</v>
@@ -8027,10 +8027,10 @@
         <v>2.63</v>
       </c>
       <c r="W53" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X53" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y53" t="n">
         <v>9.5</v>
@@ -8264,19 +8264,19 @@
         <v>1.25</v>
       </c>
       <c r="H55" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J55" t="n">
         <v>1.67</v>
       </c>
       <c r="K55" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -8309,10 +8309,10 @@
         <v>3.5</v>
       </c>
       <c r="W55" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X55" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -8321,7 +8321,7 @@
         <v>6.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB55" t="n">
         <v>7.5</v>
@@ -8336,16 +8336,16 @@
         <v>15</v>
       </c>
       <c r="AF55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH55" t="n">
         <v>67</v>
       </c>
       <c r="AI55" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ55" t="n">
         <v>23</v>
@@ -8366,10 +8366,10 @@
         <v>51</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
@@ -8406,16 +8406,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H56" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I56" t="n">
         <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K56" t="n">
         <v>2.2</v>
@@ -8424,10 +8424,10 @@
         <v>5.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O56" t="n">
         <v>1.3</v>
@@ -8436,16 +8436,16 @@
         <v>3.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U56" t="n">
         <v>1.4</v>
@@ -8472,7 +8472,7 @@
         <v>12</v>
       </c>
       <c r="AC56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD56" t="n">
         <v>29</v>
@@ -8493,13 +8493,13 @@
         <v>351</v>
       </c>
       <c r="AJ56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK56" t="n">
         <v>26</v>
       </c>
       <c r="AL56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM56" t="n">
         <v>51</v>
@@ -8577,16 +8577,16 @@
         <v>3.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R57" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S57" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T57" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U57" t="n">
         <v>1.4</v>
@@ -8709,7 +8709,7 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O58" t="n">
         <v>1.25</v>
@@ -8742,7 +8742,7 @@
         <v>2.05</v>
       </c>
       <c r="Y58" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z58" t="n">
         <v>10</v>
@@ -8772,7 +8772,7 @@
         <v>41</v>
       </c>
       <c r="AI58" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ58" t="n">
         <v>12</v>
@@ -8988,10 +8988,10 @@
         <v>2.63</v>
       </c>
       <c r="M60" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O60" t="n">
         <v>1.33</v>
@@ -9000,10 +9000,10 @@
         <v>3.25</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R60" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S60" t="n">
         <v>3.75</v>
@@ -9111,22 +9111,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H61" t="n">
         <v>3.75</v>
       </c>
       <c r="I61" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J61" t="n">
         <v>2.2</v>
       </c>
       <c r="K61" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L61" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
@@ -9159,16 +9159,16 @@
         <v>2.63</v>
       </c>
       <c r="W61" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X61" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y61" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA61" t="n">
         <v>8.5</v>
@@ -9180,22 +9180,22 @@
         <v>15</v>
       </c>
       <c r="AD61" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF61" t="n">
         <v>7.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH61" t="n">
         <v>67</v>
       </c>
       <c r="AI61" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ61" t="n">
         <v>13</v>
@@ -9204,7 +9204,7 @@
         <v>29</v>
       </c>
       <c r="AL61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM61" t="n">
         <v>67</v>
@@ -9252,13 +9252,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H62" t="n">
         <v>3.25</v>
       </c>
       <c r="I62" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J62" t="n">
         <v>3.5</v>
@@ -9300,13 +9300,13 @@
         <v>2.75</v>
       </c>
       <c r="W62" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X62" t="n">
         <v>2.05</v>
       </c>
       <c r="Y62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z62" t="n">
         <v>15</v>
@@ -9399,7 +9399,7 @@
         <v>4.1</v>
       </c>
       <c r="I63" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J63" t="n">
         <v>2.25</v>
@@ -9411,46 +9411,46 @@
         <v>5</v>
       </c>
       <c r="M63" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P63" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W63" t="n">
         <v>1.75</v>
       </c>
-      <c r="R63" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S63" t="n">
-        <v>3</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U63" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V63" t="n">
-        <v>3</v>
-      </c>
-      <c r="W63" t="n">
-        <v>1.77</v>
-      </c>
       <c r="X63" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="Y63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z63" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA63" t="n">
         <v>8.5</v>
@@ -9471,16 +9471,16 @@
         <v>7.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH63" t="n">
         <v>51</v>
       </c>
       <c r="AI63" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK63" t="n">
         <v>23</v>
@@ -9564,16 +9564,16 @@
         <v>3.75</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R64" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S64" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T64" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U64" t="n">
         <v>1.36</v>
@@ -9582,7 +9582,7 @@
         <v>3</v>
       </c>
       <c r="W64" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X64" t="n">
         <v>2.1</v>
@@ -9681,7 +9681,7 @@
         <v>4.33</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J65" t="n">
         <v>2</v>
@@ -9696,7 +9696,7 @@
         <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O65" t="n">
         <v>1.22</v>
@@ -9705,10 +9705,10 @@
         <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R65" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S65" t="n">
         <v>2.75</v>
@@ -9723,10 +9723,10 @@
         <v>3.25</v>
       </c>
       <c r="W65" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X65" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y65" t="n">
         <v>7</v>
@@ -9735,7 +9735,7 @@
         <v>7</v>
       </c>
       <c r="AA65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB65" t="n">
         <v>10</v>
@@ -9747,7 +9747,7 @@
         <v>26</v>
       </c>
       <c r="AE65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF65" t="n">
         <v>8.5</v>
@@ -9849,7 +9849,7 @@
         <v>2.1</v>
       </c>
       <c r="R66" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S66" t="n">
         <v>3.75</v>
@@ -9957,10 +9957,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H67" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I67" t="n">
         <v>9</v>
@@ -9969,16 +9969,16 @@
         <v>1.83</v>
       </c>
       <c r="K67" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L67" t="n">
         <v>8</v>
       </c>
       <c r="M67" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N67" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O67" t="n">
         <v>1.25</v>
@@ -9987,10 +9987,10 @@
         <v>3.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="R67" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S67" t="n">
         <v>3</v>
@@ -10005,10 +10005,10 @@
         <v>3</v>
       </c>
       <c r="W67" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X67" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y67" t="n">
         <v>6.5</v>
@@ -10017,7 +10017,7 @@
         <v>6</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB67" t="n">
         <v>8.5</v>
@@ -10026,22 +10026,22 @@
         <v>12</v>
       </c>
       <c r="AD67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF67" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG67" t="n">
         <v>23</v>
       </c>
       <c r="AH67" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ67" t="n">
         <v>19</v>
@@ -10056,10 +10056,10 @@
         <v>101</v>
       </c>
       <c r="AN67" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO67" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP67" t="inlineStr"/>
       <c r="AQ67" t="inlineStr"/>
@@ -10098,46 +10098,46 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I68" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
         <v>2.1</v>
       </c>
       <c r="K68" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L68" t="n">
         <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N68" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O68" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P68" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R68" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S68" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T68" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U68" t="n">
         <v>1.36</v>
@@ -10152,7 +10152,7 @@
         <v>1.8</v>
       </c>
       <c r="Y68" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z68" t="n">
         <v>7</v>
@@ -10167,13 +10167,13 @@
         <v>13</v>
       </c>
       <c r="AD68" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE68" t="n">
         <v>11</v>
       </c>
       <c r="AF68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG68" t="n">
         <v>19</v>
@@ -10182,7 +10182,7 @@
         <v>51</v>
       </c>
       <c r="AI68" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ68" t="n">
         <v>15</v>
@@ -10239,7 +10239,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H69" t="n">
         <v>3.9</v>
@@ -10263,22 +10263,22 @@
         <v>11</v>
       </c>
       <c r="O69" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P69" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R69" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S69" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T69" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U69" t="n">
         <v>1.36</v>
@@ -10380,7 +10380,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>4.5</v>
@@ -10410,7 +10410,7 @@
         <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R70" t="n">
         <v>2.4</v>
@@ -10525,13 +10525,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="H71" t="n">
         <v>3.8</v>
       </c>
       <c r="I71" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="J71" t="n">
         <v>3</v>
@@ -10555,7 +10555,7 @@
         <v>5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R71" t="n">
         <v>2.35</v>
@@ -10630,10 +10630,10 @@
         <v>23</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10775,10 +10775,10 @@
         <v>23</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
@@ -10956,22 +10956,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>3.4</v>
       </c>
       <c r="I74" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J74" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K74" t="n">
         <v>2.25</v>
       </c>
       <c r="L74" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M74" t="n">
         <v>1.04</v>
@@ -11401,28 +11401,28 @@
         <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N77" t="n">
         <v>15</v>
       </c>
       <c r="O77" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P77" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R77" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S77" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T77" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="U77" t="n">
         <v>1.33</v>
@@ -11431,7 +11431,7 @@
         <v>3.25</v>
       </c>
       <c r="W77" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X77" t="n">
         <v>2.25</v>
@@ -11542,13 +11542,13 @@
         <v>4.33</v>
       </c>
       <c r="M78" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N78" t="n">
         <v>8</v>
       </c>
       <c r="O78" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -11563,7 +11563,7 @@
         <v>3.75</v>
       </c>
       <c r="T78" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U78" t="n">
         <v>1.44</v>
@@ -11572,10 +11572,10 @@
         <v>2.63</v>
       </c>
       <c r="W78" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X78" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y78" t="n">
         <v>6.5</v>
@@ -11683,28 +11683,28 @@
         <v>2.88</v>
       </c>
       <c r="M79" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N79" t="n">
         <v>11</v>
       </c>
       <c r="O79" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P79" t="n">
         <v>3.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R79" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S79" t="n">
         <v>3.25</v>
       </c>
       <c r="T79" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U79" t="n">
         <v>1.36</v>
@@ -11857,7 +11857,7 @@
         <v>2</v>
       </c>
       <c r="X80" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y80" t="n">
         <v>6</v>
@@ -11976,7 +11976,7 @@
         <v>1.06</v>
       </c>
       <c r="N81" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O81" t="n">
         <v>1.3</v>
@@ -11985,16 +11985,16 @@
         <v>3.4</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R81" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S81" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T81" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U81" t="n">
         <v>1.44</v>
@@ -12003,10 +12003,10 @@
         <v>2.63</v>
       </c>
       <c r="W81" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X81" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Y81" t="n">
         <v>7.5</v>
@@ -12152,10 +12152,10 @@
         <v>3.4</v>
       </c>
       <c r="W82" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="X82" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Y82" t="n">
         <v>6.5</v>
@@ -12253,46 +12253,46 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I83" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K83" t="n">
         <v>2.3</v>
       </c>
       <c r="L83" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M83" t="n">
         <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O83" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P83" t="n">
         <v>4.33</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R83" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S83" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T83" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U83" t="n">
         <v>1.33</v>
@@ -12301,25 +12301,25 @@
         <v>3.25</v>
       </c>
       <c r="W83" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X83" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z83" t="n">
         <v>9</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>10</v>
       </c>
       <c r="AA83" t="n">
         <v>8.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD83" t="n">
         <v>21</v>
@@ -12331,7 +12331,7 @@
         <v>7.5</v>
       </c>
       <c r="AG83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH83" t="n">
         <v>41</v>
@@ -12340,19 +12340,19 @@
         <v>151</v>
       </c>
       <c r="AJ83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK83" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM83" t="n">
         <v>41</v>
       </c>
       <c r="AN83" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO83" t="n">
         <v>34</v>
@@ -12394,102 +12394,102 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H84" t="n">
         <v>3.15</v>
       </c>
       <c r="I84" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="J84" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="K84" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L84" t="n">
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P84" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R84" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S84" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T84" t="n">
         <v>1.24</v>
       </c>
       <c r="U84" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V84" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="W84" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X84" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="Y84" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Z84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA84" t="n">
         <v>8.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC84" t="n">
         <v>17</v>
       </c>
       <c r="AD84" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE84" t="n">
         <v>8.25</v>
       </c>
       <c r="AF84" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AG84" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ84" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK84" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AL84" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM84" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN84" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AO84" t="n">
         <v>45</v>
@@ -12531,42 +12531,42 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I85" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="J85" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K85" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L85" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="P85" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R85" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="S85" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="T85" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="U85" t="n">
         <v>1.4</v>
@@ -12575,16 +12575,16 @@
         <v>2.5</v>
       </c>
       <c r="W85" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="X85" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="Y85" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="Z85" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA85" t="n">
         <v>10.5</v>
@@ -12593,43 +12593,43 @@
         <v>37</v>
       </c>
       <c r="AC85" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD85" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AE85" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AF85" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AG85" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH85" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI85" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AJ85" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AK85" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AL85" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM85" t="n">
         <v>23</v>
       </c>
       <c r="AN85" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AO85" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AP85" t="inlineStr"/>
       <c r="AQ85" t="inlineStr"/>
@@ -12668,28 +12668,28 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H86" t="n">
         <v>4.1</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J86" t="n">
         <v>2.1</v>
       </c>
       <c r="K86" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L86" t="n">
         <v>5.5</v>
       </c>
       <c r="M86" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N86" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O86" t="n">
         <v>1.2</v>
@@ -12698,10 +12698,10 @@
         <v>4.33</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R86" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S86" t="n">
         <v>2.63</v>
@@ -12716,10 +12716,10 @@
         <v>3.25</v>
       </c>
       <c r="W86" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X86" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y86" t="n">
         <v>8</v>
@@ -12731,7 +12731,7 @@
         <v>8.5</v>
       </c>
       <c r="AB86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC86" t="n">
         <v>12</v>
@@ -12740,10 +12740,10 @@
         <v>23</v>
       </c>
       <c r="AE86" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF86" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG86" t="n">
         <v>17</v>
@@ -12809,28 +12809,28 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I87" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J87" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K87" t="n">
         <v>2.05</v>
       </c>
       <c r="L87" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M87" t="n">
         <v>1.07</v>
       </c>
       <c r="N87" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O87" t="n">
         <v>1.36</v>
@@ -12863,22 +12863,22 @@
         <v>1.83</v>
       </c>
       <c r="Y87" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z87" t="n">
         <v>15</v>
       </c>
       <c r="AA87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB87" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC87" t="n">
         <v>26</v>
       </c>
       <c r="AD87" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE87" t="n">
         <v>8.5</v>
@@ -12896,16 +12896,16 @@
         <v>301</v>
       </c>
       <c r="AJ87" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL87" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM87" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN87" t="n">
         <v>21</v>
@@ -13091,22 +13091,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J89" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K89" t="n">
         <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M89" t="n">
         <v>1.08</v>
@@ -13121,16 +13121,16 @@
         <v>2.75</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R89" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S89" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T89" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U89" t="n">
         <v>1.5</v>
@@ -13139,31 +13139,31 @@
         <v>2.5</v>
       </c>
       <c r="W89" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X89" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y89" t="n">
         <v>7.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB89" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC89" t="n">
         <v>23</v>
       </c>
       <c r="AD89" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE89" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF89" t="n">
         <v>6</v>
@@ -13178,19 +13178,19 @@
         <v>351</v>
       </c>
       <c r="AJ89" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK89" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL89" t="n">
         <v>11</v>
       </c>
       <c r="AM89" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN89" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO89" t="n">
         <v>34</v>
@@ -13241,7 +13241,7 @@
         <v>9</v>
       </c>
       <c r="J90" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K90" t="n">
         <v>2.5</v>
@@ -13382,7 +13382,7 @@
         <v>3.5</v>
       </c>
       <c r="J91" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K91" t="n">
         <v>2.05</v>
@@ -13391,10 +13391,10 @@
         <v>4</v>
       </c>
       <c r="M91" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O91" t="n">
         <v>1.4</v>
@@ -13403,16 +13403,16 @@
         <v>2.75</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R91" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S91" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T91" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U91" t="n">
         <v>1.5</v>
@@ -13673,13 +13673,13 @@
         <v>4.5</v>
       </c>
       <c r="M93" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N93" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O93" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P93" t="n">
         <v>2.5</v>
@@ -13694,7 +13694,7 @@
         <v>5</v>
       </c>
       <c r="T93" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U93" t="n">
         <v>1.57</v>
@@ -13818,13 +13818,13 @@
         <v>4.5</v>
       </c>
       <c r="M94" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N94" t="n">
         <v>7</v>
       </c>
       <c r="O94" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P94" t="n">
         <v>2.5</v>
@@ -13839,7 +13839,7 @@
         <v>5</v>
       </c>
       <c r="T94" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U94" t="n">
         <v>1.57</v>
@@ -13963,13 +13963,13 @@
         <v>3.2</v>
       </c>
       <c r="M95" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N95" t="n">
         <v>9.5</v>
       </c>
       <c r="O95" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P95" t="n">
         <v>3.4</v>
@@ -13984,7 +13984,7 @@
         <v>3.5</v>
       </c>
       <c r="T95" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U95" t="n">
         <v>1.44</v>
@@ -14156,41 +14156,91 @@
           <t>Selangor</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.9</v>
+      </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
+      <c r="Q97" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1.98</v>
+      </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr"/>
-      <c r="AB97" t="inlineStr"/>
-      <c r="AC97" t="inlineStr"/>
-      <c r="AD97" t="inlineStr"/>
-      <c r="AE97" t="inlineStr"/>
-      <c r="AF97" t="inlineStr"/>
-      <c r="AG97" t="inlineStr"/>
-      <c r="AH97" t="inlineStr"/>
-      <c r="AI97" t="inlineStr"/>
-      <c r="AJ97" t="inlineStr"/>
-      <c r="AK97" t="inlineStr"/>
-      <c r="AL97" t="inlineStr"/>
-      <c r="AM97" t="inlineStr"/>
-      <c r="AN97" t="inlineStr"/>
-      <c r="AO97" t="inlineStr"/>
+      <c r="Y97" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>20</v>
+      </c>
       <c r="AP97" t="inlineStr"/>
       <c r="AQ97" t="inlineStr"/>
       <c r="AR97" t="inlineStr"/>
@@ -14299,22 +14349,22 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H99" t="n">
         <v>4.75</v>
       </c>
       <c r="I99" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J99" t="n">
         <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L99" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M99" t="n">
         <v>1.03</v>
@@ -14323,40 +14373,40 @@
         <v>15</v>
       </c>
       <c r="O99" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P99" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="R99" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S99" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T99" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U99" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="V99" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W99" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X99" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="Y99" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA99" t="n">
         <v>8.5</v>
@@ -14368,22 +14418,22 @@
         <v>12</v>
       </c>
       <c r="AD99" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE99" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF99" t="n">
         <v>9.5</v>
       </c>
       <c r="AG99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH99" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI99" t="n">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="AJ99" t="n">
         <v>15</v>
@@ -14440,22 +14490,22 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H100" t="n">
         <v>3.5</v>
       </c>
       <c r="I100" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J100" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K100" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L100" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="M100" t="n">
         <v>1.04</v>
@@ -14488,25 +14538,25 @@
         <v>3.25</v>
       </c>
       <c r="W100" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X100" t="n">
         <v>2.25</v>
       </c>
       <c r="Y100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z100" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB100" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC100" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD100" t="n">
         <v>29</v>
@@ -14524,25 +14574,25 @@
         <v>41</v>
       </c>
       <c r="AI100" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ100" t="n">
         <v>9.5</v>
       </c>
       <c r="AK100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL100" t="n">
         <v>9</v>
       </c>
       <c r="AM100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO100" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP100" t="n">
         <v>2.05</v>
@@ -14588,61 +14638,61 @@
         <v>1.73</v>
       </c>
       <c r="H101" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I101" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J101" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="K101" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L101" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M101" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N101" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O101" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P101" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="R101" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="S101" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T101" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U101" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V101" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W101" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="X101" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="Y101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z101" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA101" t="n">
         <v>8.5</v>
@@ -14654,28 +14704,28 @@
         <v>13</v>
       </c>
       <c r="AD101" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE101" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF101" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG101" t="n">
         <v>15</v>
       </c>
       <c r="AH101" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI101" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK101" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL101" t="n">
         <v>15</v>
@@ -14684,7 +14734,7 @@
         <v>51</v>
       </c>
       <c r="AN101" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO101" t="n">
         <v>41</v>
@@ -14735,7 +14785,7 @@
         <v>8</v>
       </c>
       <c r="J102" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K102" t="n">
         <v>2.5</v>
@@ -14750,22 +14800,22 @@
         <v>15</v>
       </c>
       <c r="O102" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P102" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R102" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S102" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T102" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U102" t="n">
         <v>1.3</v>
@@ -14777,7 +14827,7 @@
         <v>2.05</v>
       </c>
       <c r="X102" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y102" t="n">
         <v>7</v>
@@ -14889,10 +14939,10 @@
         <v>3.25</v>
       </c>
       <c r="M103" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N103" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O103" t="n">
         <v>1.33</v>
@@ -14901,10 +14951,10 @@
         <v>3.25</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R103" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S103" t="n">
         <v>3.75</v>
@@ -14919,10 +14969,10 @@
         <v>2.63</v>
       </c>
       <c r="W103" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X103" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Y103" t="n">
         <v>8.5</v>
@@ -15015,7 +15065,7 @@
         <v>4.33</v>
       </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I104" t="n">
         <v>1.75</v>
@@ -15027,7 +15077,7 @@
         <v>2.25</v>
       </c>
       <c r="L104" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="M104" t="n">
         <v>1.04</v>
@@ -15042,16 +15092,16 @@
         <v>3.75</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R104" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S104" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T104" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U104" t="n">
         <v>1.36</v>
@@ -15060,13 +15110,13 @@
         <v>3</v>
       </c>
       <c r="W104" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="X104" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z104" t="n">
         <v>21</v>
@@ -15084,7 +15134,7 @@
         <v>34</v>
       </c>
       <c r="AE104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF104" t="n">
         <v>7.5</v>
@@ -15096,10 +15146,10 @@
         <v>51</v>
       </c>
       <c r="AI104" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ104" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK104" t="n">
         <v>8.5</v>
@@ -15153,97 +15203,101 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I105" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="J105" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="K105" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L105" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
+      <c r="O105" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3.65</v>
+      </c>
       <c r="Q105" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R105" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="S105" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="T105" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X105" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Y105" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="Z105" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA105" t="n">
         <v>8.5</v>
       </c>
       <c r="AB105" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC105" t="n">
         <v>14</v>
       </c>
       <c r="AD105" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE105" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF105" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AG105" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH105" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI105" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ105" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL105" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM105" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN105" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO105" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP105" t="inlineStr"/>
       <c r="AQ105" t="inlineStr"/>
@@ -15282,105 +15336,105 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H106" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I106" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J106" t="n">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="K106" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L106" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P106" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W106" t="n">
         <v>1.98</v>
       </c>
-      <c r="R106" t="n">
+      <c r="X106" t="n">
         <v>1.65</v>
       </c>
-      <c r="S106" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T106" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U106" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V106" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W106" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X106" t="n">
-        <v>1.75</v>
-      </c>
       <c r="Y106" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z106" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA106" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB106" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AC106" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD106" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE106" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AF106" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AG106" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AH106" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI106" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ106" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="AK106" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AL106" t="n">
         <v>8.5</v>
       </c>
       <c r="AM106" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN106" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO106" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AP106" t="inlineStr"/>
       <c r="AQ106" t="inlineStr"/>
@@ -15419,19 +15473,19 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I107" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J107" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K107" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L107" t="n">
         <v>3</v>
@@ -15439,13 +15493,13 @@
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P107" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R107" t="n">
         <v>1.65</v>
@@ -15454,7 +15508,7 @@
         <v>3.25</v>
       </c>
       <c r="T107" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="U107" t="n">
         <v>1.38</v>
@@ -15469,7 +15523,7 @@
         <v>1.85</v>
       </c>
       <c r="Y107" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z107" t="n">
         <v>14</v>
@@ -15478,22 +15532,22 @@
         <v>10.25</v>
       </c>
       <c r="AB107" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC107" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD107" t="n">
         <v>35</v>
       </c>
       <c r="AE107" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF107" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AG107" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH107" t="n">
         <v>70</v>
@@ -15502,16 +15556,16 @@
         <v>600</v>
       </c>
       <c r="AJ107" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AK107" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AL107" t="n">
         <v>9.5</v>
       </c>
       <c r="AM107" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN107" t="n">
         <v>21</v>
@@ -15693,56 +15747,56 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="H109" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="I109" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J109" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="K109" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="L109" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P109" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="R109" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="S109" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="T109" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="X109" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="Y109" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="Z109" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA109" t="n">
         <v>8.25</v>
@@ -15751,34 +15805,34 @@
         <v>9.25</v>
       </c>
       <c r="AC109" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AD109" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE109" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF109" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG109" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH109" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI109" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AJ109" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AK109" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL109" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM109" t="n">
         <v>200</v>
@@ -15787,7 +15841,7 @@
         <v>90</v>
       </c>
       <c r="AO109" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP109" t="inlineStr"/>
       <c r="AQ109" t="inlineStr"/>
@@ -15844,28 +15898,28 @@
         <v>4.5</v>
       </c>
       <c r="M110" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O110" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R110" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S110" t="n">
         <v>2.25</v>
       </c>
       <c r="T110" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U110" t="n">
         <v>1.29</v>
@@ -15874,7 +15928,7 @@
         <v>3.5</v>
       </c>
       <c r="W110" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X110" t="n">
         <v>2.25</v>
@@ -15931,10 +15985,10 @@
         <v>34</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
@@ -15974,7 +16028,7 @@
         <v>2.55</v>
       </c>
       <c r="H111" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -16078,10 +16132,10 @@
       <c r="AP111" t="inlineStr"/>
       <c r="AQ111" t="inlineStr"/>
       <c r="AR111" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="112">
@@ -16116,7 +16170,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>3.4</v>
@@ -16221,10 +16275,10 @@
       <c r="AP112" t="inlineStr"/>
       <c r="AQ112" t="inlineStr"/>
       <c r="AR112" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="113">
@@ -16292,7 +16346,7 @@
         <v>2.2</v>
       </c>
       <c r="R113" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S113" t="n">
         <v>4</v>
@@ -16433,7 +16487,7 @@
         <v>2.4</v>
       </c>
       <c r="R114" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S114" t="n">
         <v>4.5</v>
@@ -16566,7 +16620,7 @@
         <v>1.04</v>
       </c>
       <c r="N115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O115" t="n">
         <v>1.22</v>
@@ -16575,7 +16629,7 @@
         <v>4</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R115" t="n">
         <v>2.1</v>
@@ -16716,10 +16770,10 @@
         <v>6.5</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R116" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="S116" t="n">
         <v>2</v>
@@ -16989,7 +17043,7 @@
         <v>1.08</v>
       </c>
       <c r="N118" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O118" t="n">
         <v>1.4</v>
@@ -17250,22 +17304,22 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I120" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J120" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K120" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L120" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M120" t="n">
         <v>1.07</v>
@@ -17274,16 +17328,16 @@
         <v>7.5</v>
       </c>
       <c r="O120" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P120" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R120" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S120" t="n">
         <v>3.75</v>
@@ -17298,31 +17352,31 @@
         <v>2.63</v>
       </c>
       <c r="W120" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X120" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y120" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z120" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA120" t="n">
         <v>9.5</v>
       </c>
       <c r="AB120" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC120" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD120" t="n">
         <v>34</v>
       </c>
       <c r="AE120" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF120" t="n">
         <v>6</v>
@@ -17334,16 +17388,16 @@
         <v>51</v>
       </c>
       <c r="AI120" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ120" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK120" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL120" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM120" t="n">
         <v>41</v>
@@ -17409,10 +17463,10 @@
         <v>3.1</v>
       </c>
       <c r="M121" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N121" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O121" t="n">
         <v>1.33</v>
@@ -17421,10 +17475,10 @@
         <v>3.25</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R121" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S121" t="n">
         <v>3.75</v>
@@ -17850,10 +17904,10 @@
         <v>4</v>
       </c>
       <c r="S124" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T124" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="U124" t="n">
         <v>1.17</v>
@@ -18126,16 +18180,16 @@
         <v>3.75</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R126" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S126" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T126" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U126" t="n">
         <v>1.4</v>
@@ -18603,7 +18657,7 @@
         <v>51</v>
       </c>
       <c r="AI129" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AJ129" t="n">
         <v>11</v>
@@ -18678,13 +18732,13 @@
         <v>5.5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N130" t="n">
         <v>12</v>
       </c>
       <c r="O130" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P130" t="n">
         <v>3.75</v>
@@ -18699,7 +18753,7 @@
         <v>3</v>
       </c>
       <c r="T130" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U130" t="n">
         <v>1.36</v>
@@ -18708,10 +18762,10 @@
         <v>3</v>
       </c>
       <c r="W130" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X130" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y130" t="n">
         <v>7</v>
@@ -18819,13 +18873,13 @@
         <v>4.5</v>
       </c>
       <c r="M131" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N131" t="n">
         <v>8</v>
       </c>
       <c r="O131" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P131" t="n">
         <v>3.25</v>
@@ -18840,7 +18894,7 @@
         <v>3.5</v>
       </c>
       <c r="T131" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U131" t="n">
         <v>1.44</v>
@@ -18849,10 +18903,10 @@
         <v>2.63</v>
       </c>
       <c r="W131" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X131" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y131" t="n">
         <v>6.5</v>
@@ -18960,13 +19014,13 @@
         <v>2.3</v>
       </c>
       <c r="M132" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N132" t="n">
         <v>8.5</v>
       </c>
       <c r="O132" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P132" t="n">
         <v>3.4</v>
@@ -18981,7 +19035,7 @@
         <v>3.5</v>
       </c>
       <c r="T132" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U132" t="n">
         <v>1.4</v>
@@ -18990,10 +19044,10 @@
         <v>2.75</v>
       </c>
       <c r="W132" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X132" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y132" t="n">
         <v>12</v>
@@ -19026,7 +19080,7 @@
         <v>51</v>
       </c>
       <c r="AI132" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ132" t="n">
         <v>6.5</v>
@@ -19083,69 +19137,73 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="H133" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I133" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J133" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="K133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L133" t="n">
+        <v>6</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N133" t="n">
+        <v>34</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P133" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T133" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V133" t="n">
+        <v>6</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X133" t="n">
         <v>3</v>
       </c>
-      <c r="L133" t="n">
-        <v>5</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
-      <c r="O133" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P133" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R133" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S133" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="T133" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U133" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V133" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W133" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X133" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Y133" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z133" t="n">
         <v>13</v>
       </c>
       <c r="AA133" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC133" t="n">
         <v>10</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>11</v>
       </c>
       <c r="AD133" t="n">
         <v>15</v>
@@ -19154,7 +19212,7 @@
         <v>34</v>
       </c>
       <c r="AF133" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG133" t="n">
         <v>15</v>
@@ -19166,22 +19224,22 @@
         <v>67</v>
       </c>
       <c r="AJ133" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO133" t="n">
         <v>34</v>
-      </c>
-      <c r="AK133" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM133" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN133" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO133" t="n">
-        <v>26</v>
       </c>
       <c r="AP133" t="inlineStr"/>
       <c r="AQ133" t="inlineStr"/>
@@ -19220,48 +19278,52 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="H134" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I134" t="n">
         <v>6.5</v>
       </c>
-      <c r="I134" t="n">
-        <v>8</v>
-      </c>
       <c r="J134" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="K134" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L134" t="n">
-        <v>7</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N134" t="n">
+        <v>34</v>
+      </c>
       <c r="O134" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P134" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="R134" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="S134" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="T134" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="U134" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="V134" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="W134" t="n">
         <v>1.5</v>
@@ -19270,13 +19332,13 @@
         <v>2.5</v>
       </c>
       <c r="Y134" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z134" t="n">
         <v>11</v>
       </c>
       <c r="AA134" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB134" t="n">
         <v>11</v>
@@ -19291,10 +19353,10 @@
         <v>34</v>
       </c>
       <c r="AF134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG134" t="n">
         <v>17</v>
-      </c>
-      <c r="AG134" t="n">
-        <v>19</v>
       </c>
       <c r="AH134" t="n">
         <v>41</v>
@@ -19303,22 +19365,22 @@
         <v>101</v>
       </c>
       <c r="AJ134" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK134" t="n">
         <v>41</v>
       </c>
-      <c r="AK134" t="n">
-        <v>51</v>
-      </c>
       <c r="AL134" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM134" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN134" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO134" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP134" t="inlineStr"/>
       <c r="AQ134" t="inlineStr"/>
@@ -19357,13 +19419,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H135" t="n">
         <v>3.4</v>
       </c>
       <c r="I135" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J135" t="n">
         <v>3</v>
@@ -19423,7 +19485,7 @@
         <v>23</v>
       </c>
       <c r="AC135" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD135" t="n">
         <v>23</v>
@@ -19516,10 +19578,10 @@
         <v>3.75</v>
       </c>
       <c r="M136" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O136" t="n">
         <v>1.29</v>
@@ -19528,10 +19590,10 @@
         <v>3.5</v>
       </c>
       <c r="Q136" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R136" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S136" t="n">
         <v>3.4</v>
@@ -19657,10 +19719,10 @@
         <v>7</v>
       </c>
       <c r="M137" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O137" t="n">
         <v>1.5</v>
@@ -19800,10 +19862,10 @@
         <v>4.75</v>
       </c>
       <c r="M138" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N138" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O138" t="n">
         <v>1.53</v>
@@ -19867,7 +19929,7 @@
       </c>
       <c r="AI138" t="inlineStr"/>
       <c r="AJ138" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK138" t="n">
         <v>17</v>
@@ -19967,13 +20029,13 @@
         <v>1.4</v>
       </c>
       <c r="U139" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V139" t="n">
         <v>3.25</v>
       </c>
       <c r="W139" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X139" t="n">
         <v>2.2</v>
@@ -20090,31 +20152,31 @@
         <v>15</v>
       </c>
       <c r="O140" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P140" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R140" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S140" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T140" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U140" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V140" t="n">
         <v>3.4</v>
       </c>
       <c r="W140" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="X140" t="n">
         <v>2</v>
@@ -20253,13 +20315,13 @@
         <v>1.5</v>
       </c>
       <c r="U141" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V141" t="n">
         <v>3.4</v>
       </c>
       <c r="W141" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X141" t="n">
         <v>2.2</v>
@@ -20352,13 +20414,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H142" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I142" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J142" t="n">
         <v>2.57</v>
@@ -20370,76 +20432,76 @@
         <v>4</v>
       </c>
       <c r="M142" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N142" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="O142" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="P142" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R142" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="S142" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T142" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="U142" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V142" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="W142" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="X142" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="Y142" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="Z142" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA142" t="n">
         <v>8.5</v>
       </c>
       <c r="AB142" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC142" t="n">
         <v>17</v>
       </c>
-      <c r="AC142" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AD142" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE142" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AF142" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AG142" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI142" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AJ142" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AK142" t="n">
         <v>20</v>
@@ -20448,13 +20510,13 @@
         <v>12</v>
       </c>
       <c r="AM142" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN142" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO142" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AP142" t="inlineStr"/>
       <c r="AQ142" t="inlineStr"/>
@@ -20775,7 +20837,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H145" t="n">
         <v>4.9</v>
@@ -20784,73 +20846,73 @@
         <v>7.2</v>
       </c>
       <c r="J145" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K145" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="L145" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="M145" t="n">
         <v>1.02</v>
       </c>
       <c r="N145" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O145" t="n">
         <v>1.13</v>
       </c>
       <c r="P145" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R145" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="S145" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T145" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U145" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="V145" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="W145" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X145" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Y145" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z145" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA145" t="n">
         <v>8.5</v>
       </c>
       <c r="AB145" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AC145" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD145" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE145" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF145" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG145" t="n">
         <v>16.5</v>
@@ -20862,10 +20924,10 @@
         <v>300</v>
       </c>
       <c r="AJ145" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK145" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL145" t="n">
         <v>22</v>
@@ -20874,7 +20936,7 @@
         <v>175</v>
       </c>
       <c r="AN145" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO145" t="n">
         <v>50</v>
@@ -20934,10 +20996,10 @@
         <v>3.75</v>
       </c>
       <c r="M146" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O146" t="n">
         <v>1.3</v>
@@ -21078,19 +21140,19 @@
         <v>1.07</v>
       </c>
       <c r="N147" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O147" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P147" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R147" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S147" t="n">
         <v>3.75</v>
@@ -21381,7 +21443,7 @@
         <v>1.25</v>
       </c>
       <c r="U149" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V149" t="n">
         <v>2.5</v>
@@ -21566,7 +21628,7 @@
         <v>2.1</v>
       </c>
       <c r="L151" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M151" t="n">
         <v>1.06</v>
@@ -21575,28 +21637,28 @@
         <v>10</v>
       </c>
       <c r="O151" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P151" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q151" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R151" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S151" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T151" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U151" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V151" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="W151" t="n">
         <v>1.83</v>
@@ -21605,7 +21667,7 @@
         <v>1.83</v>
       </c>
       <c r="Y151" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z151" t="n">
         <v>9.5</v>
@@ -21623,7 +21685,7 @@
         <v>29</v>
       </c>
       <c r="AE151" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF151" t="n">
         <v>6.5</v>
@@ -21635,10 +21697,10 @@
         <v>51</v>
       </c>
       <c r="AI151" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ151" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK151" t="n">
         <v>17</v>
@@ -21653,7 +21715,7 @@
         <v>29</v>
       </c>
       <c r="AO151" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP151" t="inlineStr"/>
       <c r="AQ151" t="inlineStr"/>
@@ -21734,7 +21796,7 @@
         <v>1.2</v>
       </c>
       <c r="U152" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V152" t="n">
         <v>2.5</v>
@@ -21836,7 +21898,7 @@
         <v>2.87</v>
       </c>
       <c r="H153" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="I153" t="n">
         <v>2.82</v>
@@ -21853,37 +21915,37 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P153" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R153" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S153" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T153" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="U153" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V153" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W153" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X153" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Y153" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Z153" t="n">
         <v>15</v>
@@ -21898,10 +21960,10 @@
         <v>27</v>
       </c>
       <c r="AD153" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE153" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AF153" t="n">
         <v>5.1</v>
@@ -21910,19 +21972,19 @@
         <v>12.5</v>
       </c>
       <c r="AH153" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI153" t="n">
         <v>500</v>
       </c>
       <c r="AJ153" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AK153" t="n">
         <v>14.5</v>
       </c>
       <c r="AL153" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM153" t="n">
         <v>37</v>
@@ -21931,7 +21993,7 @@
         <v>26</v>
       </c>
       <c r="AO153" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP153" t="inlineStr"/>
       <c r="AQ153" t="inlineStr"/>
@@ -21973,57 +22035,57 @@
         <v>1.62</v>
       </c>
       <c r="H154" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I154" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J154" t="n">
         <v>2.22</v>
       </c>
       <c r="K154" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L154" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P154" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="R154" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S154" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T154" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U154" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="V154" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="W154" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="X154" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Y154" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="Z154" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA154" t="n">
         <v>8</v>
@@ -22035,40 +22097,40 @@
         <v>13.5</v>
       </c>
       <c r="AD154" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE154" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF154" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AG154" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH154" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI154" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AJ154" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK154" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL154" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM154" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN154" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AO154" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP154" t="inlineStr"/>
       <c r="AQ154" t="inlineStr"/>
@@ -22107,22 +22169,22 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="H155" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I155" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J155" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="K155" t="n">
         <v>2.32</v>
       </c>
       <c r="L155" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="M155" t="n">
         <v>1.03</v>
@@ -22143,7 +22205,7 @@
         <v>2.25</v>
       </c>
       <c r="S155" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="T155" t="n">
         <v>1.52</v>
@@ -22158,13 +22220,13 @@
         <v>1.57</v>
       </c>
       <c r="X155" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="Y155" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z155" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA155" t="n">
         <v>13.5</v>
@@ -22173,10 +22235,10 @@
         <v>65</v>
       </c>
       <c r="AC155" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD155" t="n">
         <v>32</v>
-      </c>
-      <c r="AD155" t="n">
-        <v>30</v>
       </c>
       <c r="AE155" t="n">
         <v>9</v>
@@ -22185,7 +22247,7 @@
         <v>7.7</v>
       </c>
       <c r="AG155" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH155" t="n">
         <v>45</v>
@@ -22194,7 +22256,7 @@
         <v>250</v>
       </c>
       <c r="AJ155" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK155" t="n">
         <v>9.75</v>
@@ -22203,10 +22265,10 @@
         <v>8.25</v>
       </c>
       <c r="AM155" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN155" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO155" t="n">
         <v>19.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-25.xlsx
@@ -692,40 +692,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P2" t="n">
         <v>3.75</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S2" t="n">
         <v>3.2</v>
@@ -770,7 +770,7 @@
         <v>7.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
@@ -782,7 +782,7 @@
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN4" t="n">
         <v>101</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L5" t="n">
         <v>1.83</v>
@@ -1157,16 +1157,16 @@
         <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="X5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y5" t="n">
         <v>26</v>
@@ -1181,7 +1181,7 @@
         <v>81</v>
       </c>
       <c r="AC5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
@@ -1190,7 +1190,7 @@
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1199,10 +1199,10 @@
         <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>9.5</v>
@@ -1265,7 +1265,7 @@
         <v>1.48</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.38</v>
@@ -1298,16 +1298,16 @@
         <v>1.44</v>
       </c>
       <c r="U6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V6" t="n">
         <v>3.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y6" t="n">
         <v>19</v>
@@ -1328,16 +1328,16 @@
         <v>51</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI6" t="n">
         <v>351</v>
@@ -1397,16 +1397,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
         <v>2.6</v>
@@ -1415,10 +1415,10 @@
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O7" t="n">
         <v>1.11</v>
@@ -1439,13 +1439,13 @@
         <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="V7" t="n">
         <v>4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X7" t="n">
         <v>3</v>
@@ -1538,16 +1538,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
         <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1580,13 +1580,13 @@
         <v>1.44</v>
       </c>
       <c r="U8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V8" t="n">
         <v>3.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X8" t="n">
         <v>2.05</v>
@@ -1607,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1622,7 +1622,7 @@
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
@@ -1703,16 +1703,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
         <v>3.2</v>
@@ -1721,13 +1721,13 @@
         <v>1.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V9" t="n">
         <v>2.75</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X9" t="n">
         <v>2.1</v>
@@ -1820,13 +1820,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H10" t="n">
         <v>6.5</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.67</v>
@@ -1835,7 +1835,7 @@
         <v>2.88</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -1844,10 +1844,10 @@
         <v>21</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="n">
         <v>1.44</v>
@@ -1862,16 +1862,16 @@
         <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="V10" t="n">
         <v>4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="X10" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -1898,7 +1898,7 @@
         <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>51</v>
@@ -1991,28 +1991,28 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U11" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V11" t="n">
         <v>2.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X11" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Y11" t="n">
         <v>7.5</v>
@@ -2102,28 +2102,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="H12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K12" t="n">
         <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O12" t="n">
         <v>1.14</v>
@@ -2159,7 +2159,7 @@
         <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
         <v>8.5</v>
@@ -2168,7 +2168,7 @@
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
         <v>19</v>
@@ -2195,7 +2195,7 @@
         <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
         <v>51</v>
@@ -2204,7 +2204,7 @@
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP12" t="n">
         <v>1.82</v>
@@ -2247,13 +2247,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="J13" t="n">
         <v>7</v>
@@ -2277,16 +2277,16 @@
         <v>6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
         <v>1.22</v>
@@ -2301,16 +2301,16 @@
         <v>2.05</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
         <v>41</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AC13" t="n">
         <v>51</v>
@@ -2322,7 +2322,7 @@
         <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
         <v>19</v>
@@ -2343,7 +2343,7 @@
         <v>9</v>
       </c>
       <c r="AM13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN13" t="n">
         <v>10</v>
@@ -2388,16 +2388,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
         <v>2.25</v>
@@ -2436,7 +2436,7 @@
         <v>3.25</v>
       </c>
       <c r="W14" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X14" t="n">
         <v>2.2</v>
@@ -2448,7 +2448,7 @@
         <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
@@ -2487,7 +2487,7 @@
         <v>23</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>23</v>
@@ -2535,7 +2535,7 @@
         <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -2559,16 +2559,16 @@
         <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="n">
         <v>1.29</v>
@@ -2634,10 +2634,10 @@
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
@@ -2779,10 +2779,10 @@
         <v>34</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2825,7 +2825,7 @@
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="J17" t="n">
         <v>4.33</v>
@@ -2843,22 +2843,22 @@
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -2978,10 +2978,10 @@
         <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
         <v>1.5</v>
@@ -2996,10 +2996,10 @@
         <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U18" t="n">
         <v>1.57</v>
@@ -3067,10 +3067,10 @@
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="19">
@@ -3129,10 +3129,10 @@
         <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
         <v>2.3</v>
@@ -3246,22 +3246,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
@@ -3294,22 +3294,22 @@
         <v>5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X20" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="n">
         <v>11</v>
@@ -3321,13 +3321,13 @@
         <v>29</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="n">
         <v>301</v>
@@ -3336,19 +3336,19 @@
         <v>41</v>
       </c>
       <c r="AK20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL20" t="n">
         <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AN20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AO20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -3546,10 +3546,10 @@
         <v>4.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.5</v>
@@ -3570,10 +3570,10 @@
         <v>1.2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V22" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W22" t="n">
         <v>2.05</v>
@@ -3588,7 +3588,7 @@
         <v>9.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB22" t="n">
         <v>21</v>
@@ -3597,7 +3597,7 @@
         <v>21</v>
       </c>
       <c r="AD22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="n">
         <v>6.5</v>
@@ -3612,7 +3612,7 @@
         <v>67</v>
       </c>
       <c r="AI22" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ22" t="n">
         <v>8.5</v>
@@ -3635,10 +3635,10 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="23">
@@ -3673,10 +3673,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
         <v>4.75</v>
@@ -3730,7 +3730,7 @@
         <v>9</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="n">
         <v>8.5</v>
@@ -3763,7 +3763,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
         <v>15</v>
@@ -3778,10 +3778,10 @@
         <v>34</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
@@ -3963,22 +3963,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I25" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="J25" t="n">
         <v>8.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L25" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
@@ -3987,22 +3987,22 @@
         <v>19</v>
       </c>
       <c r="O25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U25" t="n">
         <v>1.22</v>
@@ -4011,10 +4011,10 @@
         <v>4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y25" t="n">
         <v>29</v>
@@ -4050,16 +4050,16 @@
         <v>251</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN25" t="n">
         <v>10</v>
@@ -4368,10 +4368,10 @@
         <v>1.23</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="28">
@@ -4517,10 +4517,10 @@
         <v>1.23</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="29">
@@ -4555,28 +4555,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J29" t="n">
         <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L29" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -4597,10 +4597,10 @@
         <v>1.14</v>
       </c>
       <c r="U29" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W29" t="n">
         <v>2.38</v>
@@ -4612,19 +4612,19 @@
         <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA29" t="n">
         <v>19</v>
       </c>
       <c r="AB29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE29" t="n">
         <v>6</v>
@@ -4645,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="AK29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AL29" t="n">
         <v>9.5</v>
@@ -4666,10 +4666,10 @@
         <v>1.21</v>
       </c>
       <c r="AR29" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="30">
@@ -4722,10 +4722,10 @@
         <v>3.25</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.33</v>
@@ -4845,28 +4845,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="H31" t="n">
         <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K31" t="n">
         <v>2.5</v>
       </c>
       <c r="L31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O31" t="n">
         <v>1.14</v>
@@ -4935,7 +4935,7 @@
         <v>21</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL31" t="n">
         <v>17</v>
@@ -4944,7 +4944,7 @@
         <v>51</v>
       </c>
       <c r="AN31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO31" t="n">
         <v>34</v>
@@ -5028,7 +5028,7 @@
         <v>1.44</v>
       </c>
       <c r="U32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V32" t="n">
         <v>3.25</v>
@@ -5268,105 +5268,105 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="H34" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="I34" t="n">
-        <v>5.2</v>
+        <v>7.1</v>
       </c>
       <c r="J34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K34" t="n">
         <v>2.15</v>
       </c>
-      <c r="K34" t="n">
-        <v>2.12</v>
-      </c>
       <c r="L34" t="n">
-        <v>5.4</v>
+        <v>6.9</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P34" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="U34" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V34" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="W34" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="X34" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="AA34" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB34" t="n">
-        <v>11.5</v>
+        <v>9.25</v>
       </c>
       <c r="AC34" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD34" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF34" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="AG34" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AH34" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AI34" t="n">
         <v>900</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="AK34" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AM34" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN34" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AO34" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5435,19 +5435,19 @@
         <v>5.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R35" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U35" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V35" t="n">
         <v>3.75</v>
@@ -5592,7 +5592,7 @@
         <v>1.33</v>
       </c>
       <c r="U36" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V36" t="n">
         <v>2.75</v>
@@ -5853,7 +5853,7 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O38" t="n">
         <v>1.22</v>
@@ -6144,10 +6144,10 @@
         <v>4.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R40" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S40" t="n">
         <v>2.5</v>
@@ -6219,10 +6219,10 @@
         <v>41</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
         <v>2.1</v>
       </c>
       <c r="X42" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Y42" t="n">
         <v>6</v>
@@ -6587,16 +6587,16 @@
         <v>2.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R43" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T43" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U43" t="n">
         <v>1.5</v>
@@ -6605,10 +6605,10 @@
         <v>2.5</v>
       </c>
       <c r="W43" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X43" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
@@ -6707,7 +6707,7 @@
         <v>8</v>
       </c>
       <c r="J44" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K44" t="n">
         <v>2.5</v>
@@ -6722,22 +6722,22 @@
         <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R44" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S44" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T44" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U44" t="n">
         <v>1.33</v>
@@ -6749,7 +6749,7 @@
         <v>2.1</v>
       </c>
       <c r="X44" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Y44" t="n">
         <v>7</v>
@@ -7411,13 +7411,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H49" t="n">
         <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J49" t="n">
         <v>2.75</v>
@@ -7426,7 +7426,7 @@
         <v>2.1</v>
       </c>
       <c r="L49" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>1.07</v>
@@ -7474,7 +7474,7 @@
         <v>9</v>
       </c>
       <c r="AB49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC49" t="n">
         <v>17</v>
@@ -7483,7 +7483,7 @@
         <v>29</v>
       </c>
       <c r="AE49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF49" t="n">
         <v>6.5</v>
@@ -7495,13 +7495,13 @@
         <v>51</v>
       </c>
       <c r="AI49" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ49" t="n">
         <v>10</v>
       </c>
       <c r="AK49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL49" t="n">
         <v>13</v>
@@ -7570,10 +7570,10 @@
         <v>4.75</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O50" t="n">
         <v>1.4</v>
@@ -7693,22 +7693,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>3.2</v>
       </c>
       <c r="I51" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K51" t="n">
         <v>1.95</v>
       </c>
       <c r="L51" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M51" t="n">
         <v>1.1</v>
@@ -7717,16 +7717,16 @@
         <v>7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P51" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R51" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S51" t="n">
         <v>4.5</v>
@@ -7762,7 +7762,7 @@
         <v>21</v>
       </c>
       <c r="AD51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE51" t="n">
         <v>7</v>
@@ -7780,7 +7780,7 @@
         <v>501</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK51" t="n">
         <v>17</v>
@@ -7800,10 +7800,10 @@
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
       <c r="AR51" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -8015,10 +8015,10 @@
         <v>1.73</v>
       </c>
       <c r="S53" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T53" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U53" t="n">
         <v>1.44</v>
@@ -8177,7 +8177,7 @@
         <v>7.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA54" t="n">
         <v>10</v>
@@ -8270,7 +8270,7 @@
         <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="K55" t="n">
         <v>2.75</v>
@@ -8424,10 +8424,10 @@
         <v>5.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O56" t="n">
         <v>1.3</v>
@@ -8436,16 +8436,16 @@
         <v>3.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R56" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T56" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U56" t="n">
         <v>1.4</v>
@@ -8577,10 +8577,10 @@
         <v>3.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="R57" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S57" t="n">
         <v>3.25</v>
@@ -8688,16 +8688,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H58" t="n">
         <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J58" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K58" t="n">
         <v>2.25</v>
@@ -8718,10 +8718,10 @@
         <v>3.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R58" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S58" t="n">
         <v>3</v>
@@ -8742,7 +8742,7 @@
         <v>2.05</v>
       </c>
       <c r="Y58" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z58" t="n">
         <v>10</v>
@@ -9000,10 +9000,10 @@
         <v>3.25</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R60" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S60" t="n">
         <v>3.75</v>
@@ -9252,13 +9252,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>3.25</v>
       </c>
       <c r="I62" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J62" t="n">
         <v>3.5</v>
@@ -9267,13 +9267,13 @@
         <v>2.1</v>
       </c>
       <c r="L62" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O62" t="n">
         <v>1.29</v>
@@ -9282,16 +9282,16 @@
         <v>3.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="R62" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="S62" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T62" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U62" t="n">
         <v>1.4</v>
@@ -9306,7 +9306,7 @@
         <v>2.05</v>
       </c>
       <c r="Y62" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z62" t="n">
         <v>15</v>
@@ -9354,7 +9354,7 @@
         <v>19</v>
       </c>
       <c r="AO62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP62" t="inlineStr"/>
       <c r="AQ62" t="inlineStr"/>
@@ -9534,28 +9534,28 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I64" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J64" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K64" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L64" t="n">
         <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O64" t="n">
         <v>1.25</v>
@@ -9576,25 +9576,25 @@
         <v>1.33</v>
       </c>
       <c r="U64" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V64" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W64" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="X64" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z64" t="n">
         <v>10</v>
       </c>
       <c r="AA64" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB64" t="n">
         <v>17</v>
@@ -9603,10 +9603,10 @@
         <v>15</v>
       </c>
       <c r="AD64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF64" t="n">
         <v>6.5</v>
@@ -9618,10 +9618,10 @@
         <v>41</v>
       </c>
       <c r="AI64" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK64" t="n">
         <v>21</v>
@@ -9675,28 +9675,28 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H65" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I65" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K65" t="n">
         <v>2.38</v>
       </c>
       <c r="L65" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M65" t="n">
         <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
         <v>1.22</v>
@@ -9705,10 +9705,10 @@
         <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R65" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S65" t="n">
         <v>2.75</v>
@@ -9723,22 +9723,22 @@
         <v>3.25</v>
       </c>
       <c r="W65" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X65" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y65" t="n">
         <v>7</v>
       </c>
       <c r="Z65" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC65" t="n">
         <v>12</v>
@@ -9750,16 +9750,16 @@
         <v>12</v>
       </c>
       <c r="AF65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH65" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI65" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ65" t="n">
         <v>17</v>
@@ -9768,16 +9768,16 @@
         <v>34</v>
       </c>
       <c r="AL65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM65" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN65" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO65" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP65" t="inlineStr"/>
       <c r="AQ65" t="inlineStr"/>
@@ -9816,28 +9816,28 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J66" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K66" t="n">
         <v>2.1</v>
       </c>
       <c r="L66" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N66" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O66" t="n">
         <v>1.33</v>
@@ -9864,22 +9864,22 @@
         <v>2.63</v>
       </c>
       <c r="W66" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X66" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y66" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA66" t="n">
         <v>8.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC66" t="n">
         <v>15</v>
@@ -9891,25 +9891,25 @@
         <v>8.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH66" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI66" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM66" t="n">
         <v>51</v>
@@ -9918,7 +9918,7 @@
         <v>41</v>
       </c>
       <c r="AO66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP66" t="inlineStr"/>
       <c r="AQ66" t="inlineStr"/>
@@ -10098,7 +10098,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>4.1</v>
@@ -10128,10 +10128,10 @@
         <v>3.75</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="R68" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S68" t="n">
         <v>3</v>
@@ -10239,7 +10239,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H69" t="n">
         <v>3.9</v>
@@ -10269,16 +10269,16 @@
         <v>3.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R69" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S69" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T69" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U69" t="n">
         <v>1.36</v>
@@ -10380,7 +10380,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H70" t="n">
         <v>4.5</v>
@@ -10485,10 +10485,10 @@
         <v>29</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr"/>
@@ -10525,13 +10525,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="H71" t="n">
         <v>3.8</v>
       </c>
       <c r="I71" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="J71" t="n">
         <v>3</v>
@@ -10691,25 +10691,25 @@
         <v>1.03</v>
       </c>
       <c r="N72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P72" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R72" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S72" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T72" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U72" t="n">
         <v>1.29</v>
@@ -10775,10 +10775,10 @@
         <v>23</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
@@ -11542,10 +11542,10 @@
         <v>4.33</v>
       </c>
       <c r="M78" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O78" t="n">
         <v>1.36</v>
@@ -11560,10 +11560,10 @@
         <v>1.67</v>
       </c>
       <c r="S78" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T78" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U78" t="n">
         <v>1.44</v>
@@ -11680,7 +11680,7 @@
         <v>2.2</v>
       </c>
       <c r="L79" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -11713,7 +11713,7 @@
         <v>3</v>
       </c>
       <c r="W79" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X79" t="n">
         <v>2.1</v>
@@ -11815,7 +11815,7 @@
         <v>4.33</v>
       </c>
       <c r="J80" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K80" t="n">
         <v>2.05</v>
@@ -11836,10 +11836,10 @@
         <v>2.75</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R80" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S80" t="n">
         <v>4.33</v>
@@ -11857,7 +11857,7 @@
         <v>2</v>
       </c>
       <c r="X80" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y80" t="n">
         <v>6</v>
@@ -11911,16 +11911,16 @@
         <v>41</v>
       </c>
       <c r="AP80" t="n">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AR80" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="81">
@@ -11997,16 +11997,16 @@
         <v>1.3</v>
       </c>
       <c r="U81" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V81" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W81" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X81" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Y81" t="n">
         <v>7.5</v>
@@ -12134,10 +12134,10 @@
         <v>4.33</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R82" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S82" t="n">
         <v>2.63</v>
@@ -12146,16 +12146,16 @@
         <v>1.44</v>
       </c>
       <c r="U82" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V82" t="n">
         <v>3.4</v>
       </c>
       <c r="W82" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="X82" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Y82" t="n">
         <v>6.5</v>
@@ -12215,10 +12215,10 @@
         <v>1.8</v>
       </c>
       <c r="AR82" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AS82" t="n">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="83">
@@ -12253,22 +12253,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H83" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I83" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J83" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K83" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M83" t="n">
         <v>1.03</v>
@@ -12295,7 +12295,7 @@
         <v>1.44</v>
       </c>
       <c r="U83" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V83" t="n">
         <v>3.25</v>
@@ -12310,13 +12310,13 @@
         <v>8.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA83" t="n">
         <v>8.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC83" t="n">
         <v>13</v>
@@ -12325,10 +12325,10 @@
         <v>21</v>
       </c>
       <c r="AE83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF83" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG83" t="n">
         <v>15</v>
@@ -12343,13 +12343,13 @@
         <v>15</v>
       </c>
       <c r="AK83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL83" t="n">
         <v>15</v>
       </c>
       <c r="AM83" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN83" t="n">
         <v>34</v>
@@ -12394,22 +12394,22 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H84" t="n">
         <v>3.15</v>
       </c>
       <c r="I84" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J84" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K84" t="n">
         <v>2.05</v>
       </c>
       <c r="L84" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -12417,19 +12417,19 @@
         <v>1.35</v>
       </c>
       <c r="P84" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R84" t="n">
         <v>1.62</v>
       </c>
       <c r="S84" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T84" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U84" t="n">
         <v>1.4</v>
@@ -12453,7 +12453,7 @@
         <v>8.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC84" t="n">
         <v>17</v>
@@ -12462,10 +12462,10 @@
         <v>32</v>
       </c>
       <c r="AE84" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF84" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AG84" t="n">
         <v>15.5</v>
@@ -12477,19 +12477,19 @@
         <v>700</v>
       </c>
       <c r="AJ84" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK84" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL84" t="n">
         <v>13</v>
       </c>
       <c r="AM84" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN84" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO84" t="n">
         <v>45</v>
@@ -12531,7 +12531,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H85" t="n">
         <v>3.15</v>
@@ -12543,30 +12543,30 @@
         <v>3.45</v>
       </c>
       <c r="K85" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L85" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P85" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R85" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S85" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T85" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U85" t="n">
         <v>1.4</v>
@@ -12575,10 +12575,10 @@
         <v>2.5</v>
       </c>
       <c r="W85" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X85" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -12599,7 +12599,7 @@
         <v>35</v>
       </c>
       <c r="AE85" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF85" t="n">
         <v>6.1</v>
@@ -12608,28 +12608,28 @@
         <v>14</v>
       </c>
       <c r="AH85" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI85" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ85" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AK85" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AL85" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM85" t="n">
         <v>23</v>
       </c>
       <c r="AN85" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO85" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AP85" t="inlineStr"/>
       <c r="AQ85" t="inlineStr"/>
@@ -12809,58 +12809,58 @@
         </is>
       </c>
       <c r="G87" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H87" t="n">
         <v>3.1</v>
       </c>
-      <c r="H87" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>4</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N87" t="n">
+        <v>8</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q87" t="n">
         <v>2.25</v>
       </c>
-      <c r="J87" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N87" t="n">
-        <v>9</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P87" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R87" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S87" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T87" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U87" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V87" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W87" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X87" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -12875,25 +12875,25 @@
         <v>34</v>
       </c>
       <c r="AC87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD87" t="n">
         <v>41</v>
       </c>
       <c r="AE87" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF87" t="n">
         <v>6</v>
       </c>
       <c r="AG87" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH87" t="n">
         <v>51</v>
       </c>
       <c r="AI87" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ87" t="n">
         <v>7</v>
@@ -12950,16 +12950,16 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H88" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>2.45</v>
       </c>
       <c r="J88" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K88" t="n">
         <v>2.05</v>
@@ -12968,10 +12968,10 @@
         <v>3.2</v>
       </c>
       <c r="M88" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O88" t="n">
         <v>1.36</v>
@@ -12986,16 +12986,16 @@
         <v>1.67</v>
       </c>
       <c r="S88" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T88" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U88" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V88" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W88" t="n">
         <v>1.83</v>
@@ -13016,13 +13016,13 @@
         <v>29</v>
       </c>
       <c r="AC88" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD88" t="n">
         <v>34</v>
       </c>
       <c r="AE88" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF88" t="n">
         <v>6</v>
@@ -13037,7 +13037,7 @@
         <v>301</v>
       </c>
       <c r="AJ88" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK88" t="n">
         <v>12</v>
@@ -13115,10 +13115,10 @@
         <v>8</v>
       </c>
       <c r="O89" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P89" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q89" t="n">
         <v>2.25</v>
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H90" t="n">
         <v>4.75</v>
@@ -13274,10 +13274,10 @@
         <v>1.44</v>
       </c>
       <c r="U90" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V90" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W90" t="n">
         <v>2.1</v>
@@ -13286,7 +13286,7 @@
         <v>1.67</v>
       </c>
       <c r="Y90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z90" t="n">
         <v>6.5</v>
@@ -13298,25 +13298,25 @@
         <v>8</v>
       </c>
       <c r="AC90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD90" t="n">
         <v>29</v>
       </c>
       <c r="AE90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF90" t="n">
         <v>9.5</v>
       </c>
       <c r="AG90" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH90" t="n">
         <v>67</v>
       </c>
       <c r="AI90" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ90" t="n">
         <v>21</v>
@@ -13328,13 +13328,13 @@
         <v>26</v>
       </c>
       <c r="AM90" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN90" t="n">
         <v>67</v>
       </c>
       <c r="AO90" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP90" t="inlineStr"/>
       <c r="AQ90" t="inlineStr"/>
@@ -13373,7 +13373,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>3.2</v>
@@ -13514,7 +13514,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H92" t="n">
         <v>3.1</v>
@@ -13655,7 +13655,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H93" t="n">
         <v>3</v>
@@ -13800,10 +13800,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H94" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
         <v>3.8</v>
@@ -13812,16 +13812,16 @@
         <v>3</v>
       </c>
       <c r="K94" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="L94" t="n">
         <v>4.5</v>
       </c>
       <c r="M94" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N94" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O94" t="n">
         <v>1.5</v>
@@ -13833,7 +13833,7 @@
         <v>2.5</v>
       </c>
       <c r="R94" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S94" t="n">
         <v>5</v>
@@ -13951,7 +13951,7 @@
         <v>3.3</v>
       </c>
       <c r="I95" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J95" t="n">
         <v>3.5</v>
@@ -13966,7 +13966,7 @@
         <v>1.06</v>
       </c>
       <c r="N95" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O95" t="n">
         <v>1.3</v>
@@ -14349,7 +14349,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H99" t="n">
         <v>4.75</v>
@@ -14361,19 +14361,19 @@
         <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L99" t="n">
         <v>6.5</v>
       </c>
       <c r="M99" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N99" t="n">
         <v>15</v>
       </c>
       <c r="O99" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -14388,7 +14388,7 @@
         <v>2.75</v>
       </c>
       <c r="T99" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U99" t="n">
         <v>1.36</v>
@@ -14490,7 +14490,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>3.5</v>
@@ -14499,37 +14499,37 @@
         <v>2.2</v>
       </c>
       <c r="J100" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K100" t="n">
         <v>2.25</v>
       </c>
       <c r="L100" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="M100" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O100" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P100" t="n">
         <v>4.33</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R100" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S100" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T100" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U100" t="n">
         <v>1.33</v>
@@ -14574,7 +14574,7 @@
         <v>41</v>
       </c>
       <c r="AI100" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ100" t="n">
         <v>9.5</v>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="H101" t="n">
         <v>3.7</v>
@@ -14653,13 +14653,13 @@
         <v>4.75</v>
       </c>
       <c r="M101" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N101" t="n">
         <v>13</v>
       </c>
       <c r="O101" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -14674,7 +14674,7 @@
         <v>2.75</v>
       </c>
       <c r="T101" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U101" t="n">
         <v>1.36</v>
@@ -14785,7 +14785,7 @@
         <v>8</v>
       </c>
       <c r="J102" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K102" t="n">
         <v>2.5</v>
@@ -14797,25 +14797,25 @@
         <v>1.03</v>
       </c>
       <c r="N102" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O102" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P102" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R102" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S102" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T102" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U102" t="n">
         <v>1.3</v>
@@ -15077,7 +15077,7 @@
         <v>2.25</v>
       </c>
       <c r="L104" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="M104" t="n">
         <v>1.04</v>
@@ -15092,10 +15092,10 @@
         <v>3.75</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R104" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S104" t="n">
         <v>3.25</v>
@@ -15473,42 +15473,42 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="H107" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I107" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="J107" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K107" t="n">
         <v>2.07</v>
       </c>
       <c r="L107" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P107" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q107" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R107" t="n">
         <v>1.65</v>
       </c>
       <c r="S107" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T107" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="U107" t="n">
         <v>1.38</v>
@@ -15517,31 +15517,31 @@
         <v>2.57</v>
       </c>
       <c r="W107" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X107" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Y107" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z107" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA107" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB107" t="n">
         <v>35</v>
       </c>
       <c r="AC107" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD107" t="n">
         <v>35</v>
       </c>
       <c r="AE107" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF107" t="n">
         <v>6</v>
@@ -15550,28 +15550,28 @@
         <v>14</v>
       </c>
       <c r="AH107" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI107" t="n">
         <v>600</v>
       </c>
       <c r="AJ107" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AK107" t="n">
         <v>11.75</v>
       </c>
       <c r="AL107" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM107" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN107" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO107" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP107" t="inlineStr"/>
       <c r="AQ107" t="inlineStr"/>
@@ -15610,42 +15610,42 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H108" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I108" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J108" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="K108" t="n">
         <v>2.1</v>
       </c>
       <c r="L108" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P108" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q108" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R108" t="n">
         <v>1.78</v>
       </c>
-      <c r="R108" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S108" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="T108" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="U108" t="n">
         <v>1.39</v>
@@ -15657,13 +15657,13 @@
         <v>1.65</v>
       </c>
       <c r="X108" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Y108" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z108" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA108" t="n">
         <v>9</v>
@@ -15672,43 +15672,43 @@
         <v>23</v>
       </c>
       <c r="AC108" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD108" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE108" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AF108" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AG108" t="n">
         <v>13.5</v>
       </c>
       <c r="AH108" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI108" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AJ108" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK108" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL108" t="n">
         <v>10.25</v>
       </c>
       <c r="AM108" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO108" t="n">
         <v>32</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO108" t="n">
-        <v>30</v>
       </c>
       <c r="AP108" t="inlineStr"/>
       <c r="AQ108" t="inlineStr"/>
@@ -15747,10 +15747,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H109" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="I109" t="n">
         <v>7.4</v>
@@ -15759,71 +15759,71 @@
         <v>1.85</v>
       </c>
       <c r="K109" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L109" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P109" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R109" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="S109" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="T109" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X109" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y109" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z109" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AA109" t="n">
         <v>8.25</v>
       </c>
       <c r="AB109" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AC109" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AD109" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE109" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF109" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG109" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH109" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI109" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ109" t="n">
         <v>20</v>
@@ -15838,7 +15838,7 @@
         <v>200</v>
       </c>
       <c r="AN109" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AO109" t="n">
         <v>70</v>
@@ -15880,7 +15880,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H110" t="n">
         <v>3.7</v>
@@ -15892,10 +15892,10 @@
         <v>2.25</v>
       </c>
       <c r="K110" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L110" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M110" t="n">
         <v>1.03</v>
@@ -15928,10 +15928,10 @@
         <v>3.5</v>
       </c>
       <c r="W110" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X110" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y110" t="n">
         <v>10</v>
@@ -15949,10 +15949,10 @@
         <v>12</v>
       </c>
       <c r="AD110" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF110" t="n">
         <v>7.5</v>
@@ -15961,10 +15961,10 @@
         <v>12</v>
       </c>
       <c r="AH110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI110" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ110" t="n">
         <v>19</v>
@@ -15985,10 +15985,10 @@
         <v>34</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
@@ -16028,7 +16028,7 @@
         <v>2.55</v>
       </c>
       <c r="H111" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -16076,7 +16076,7 @@
         <v>2.1</v>
       </c>
       <c r="X111" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Y111" t="n">
         <v>6.5</v>
@@ -16170,7 +16170,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H112" t="n">
         <v>3.4</v>
@@ -16221,7 +16221,7 @@
         <v>2.25</v>
       </c>
       <c r="X112" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Y112" t="n">
         <v>5.5</v>
@@ -16313,7 +16313,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H113" t="n">
         <v>3.4</v>
@@ -16364,7 +16364,7 @@
         <v>2</v>
       </c>
       <c r="X113" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y113" t="n">
         <v>6</v>
@@ -16457,64 +16457,64 @@
         <v>2.55</v>
       </c>
       <c r="H114" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" t="n">
         <v>2.9</v>
       </c>
-      <c r="I114" t="n">
-        <v>3</v>
-      </c>
       <c r="J114" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K114" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L114" t="n">
         <v>3.75</v>
       </c>
       <c r="M114" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N114" t="n">
+        <v>8</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P114" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S114" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y114" t="n">
         <v>7</v>
-      </c>
-      <c r="O114" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P114" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R114" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S114" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T114" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U114" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V114" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W114" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="X114" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>6.5</v>
       </c>
       <c r="Z114" t="n">
         <v>11</v>
       </c>
       <c r="AA114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB114" t="n">
         <v>26</v>
@@ -16526,7 +16526,7 @@
         <v>41</v>
       </c>
       <c r="AE114" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF114" t="n">
         <v>6</v>
@@ -16535,10 +16535,10 @@
         <v>17</v>
       </c>
       <c r="AH114" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI114" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AJ114" t="n">
         <v>7.5</v>
@@ -16547,13 +16547,13 @@
         <v>13</v>
       </c>
       <c r="AL114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM114" t="n">
         <v>29</v>
       </c>
       <c r="AN114" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO114" t="n">
         <v>41</v>
@@ -16561,10 +16561,10 @@
       <c r="AP114" t="inlineStr"/>
       <c r="AQ114" t="inlineStr"/>
       <c r="AR114" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="115">
@@ -16599,16 +16599,16 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H115" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I115" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="J115" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K115" t="n">
         <v>2.4</v>
@@ -16629,10 +16629,10 @@
         <v>4</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R115" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S115" t="n">
         <v>2.75</v>
@@ -16674,10 +16674,10 @@
         <v>12</v>
       </c>
       <c r="AF115" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG115" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH115" t="n">
         <v>51</v>
@@ -16740,7 +16740,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="H116" t="n">
         <v>9.5</v>
@@ -16770,10 +16770,10 @@
         <v>6.5</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R116" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="S116" t="n">
         <v>2</v>
@@ -16914,7 +16914,7 @@
         <v>2.15</v>
       </c>
       <c r="R117" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S117" t="n">
         <v>3.75</v>
@@ -17052,16 +17052,16 @@
         <v>2.75</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R118" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S118" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T118" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U118" t="n">
         <v>1.5</v>
@@ -17181,10 +17181,10 @@
         <v>4.75</v>
       </c>
       <c r="M119" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O119" t="n">
         <v>1.36</v>
@@ -17193,16 +17193,16 @@
         <v>3</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R119" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S119" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T119" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U119" t="n">
         <v>1.44</v>
@@ -17304,94 +17304,94 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I120" t="n">
         <v>4.5</v>
       </c>
       <c r="J120" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K120" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L120" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M120" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N120" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="O120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P120" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T120" t="n">
         <v>1.33</v>
       </c>
-      <c r="P120" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R120" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S120" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T120" t="n">
-        <v>1.25</v>
-      </c>
       <c r="U120" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V120" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W120" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="X120" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y120" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Z120" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA120" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB120" t="n">
         <v>15</v>
       </c>
       <c r="AC120" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD120" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AE120" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF120" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG120" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH120" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI120" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AJ120" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK120" t="n">
         <v>21</v>
@@ -17454,31 +17454,31 @@
         <v>2.38</v>
       </c>
       <c r="J121" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K121" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L121" t="n">
         <v>3.1</v>
       </c>
       <c r="M121" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N121" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O121" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P121" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R121" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S121" t="n">
         <v>3.75</v>
@@ -17499,7 +17499,7 @@
         <v>1.83</v>
       </c>
       <c r="Y121" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z121" t="n">
         <v>13</v>
@@ -17529,7 +17529,7 @@
         <v>51</v>
       </c>
       <c r="AI121" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ121" t="n">
         <v>7.5</v>
@@ -17610,22 +17610,22 @@
         <v>9</v>
       </c>
       <c r="O122" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P122" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R122" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S122" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T122" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U122" t="n">
         <v>1.36</v>
@@ -17634,22 +17634,22 @@
         <v>3</v>
       </c>
       <c r="W122" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X122" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y122" t="n">
         <v>11</v>
       </c>
       <c r="Z122" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA122" t="n">
         <v>12</v>
       </c>
       <c r="AB122" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC122" t="n">
         <v>26</v>
@@ -17670,7 +17670,7 @@
         <v>51</v>
       </c>
       <c r="AI122" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ122" t="n">
         <v>8</v>
@@ -18033,16 +18033,16 @@
         <v>10</v>
       </c>
       <c r="O125" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P125" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R125" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S125" t="n">
         <v>3.5</v>
@@ -18321,16 +18321,16 @@
         <v>3.4</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R127" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S127" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T127" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U127" t="n">
         <v>1.4</v>
@@ -18576,7 +18576,7 @@
         <v>1.95</v>
       </c>
       <c r="H129" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I129" t="n">
         <v>3.4</v>
@@ -18591,10 +18591,10 @@
         <v>4</v>
       </c>
       <c r="M129" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N129" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O129" t="n">
         <v>1.3</v>
@@ -18603,10 +18603,10 @@
         <v>3.4</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R129" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S129" t="n">
         <v>3.4</v>
@@ -18645,10 +18645,10 @@
         <v>29</v>
       </c>
       <c r="AE129" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF129" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG129" t="n">
         <v>15</v>
@@ -18657,7 +18657,7 @@
         <v>51</v>
       </c>
       <c r="AI129" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ129" t="n">
         <v>11</v>
@@ -18675,7 +18675,7 @@
         <v>29</v>
       </c>
       <c r="AO129" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP129" t="inlineStr"/>
       <c r="AQ129" t="inlineStr"/>
@@ -18714,28 +18714,28 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H130" t="n">
         <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J130" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K130" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L130" t="n">
         <v>5.5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N130" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O130" t="n">
         <v>1.25</v>
@@ -18762,22 +18762,22 @@
         <v>3</v>
       </c>
       <c r="W130" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X130" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y130" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z130" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA130" t="n">
         <v>8.5</v>
       </c>
       <c r="AB130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC130" t="n">
         <v>13</v>
@@ -18789,10 +18789,10 @@
         <v>12</v>
       </c>
       <c r="AF130" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG130" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH130" t="n">
         <v>51</v>
@@ -18807,10 +18807,10 @@
         <v>29</v>
       </c>
       <c r="AL130" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM130" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN130" t="n">
         <v>41</v>
@@ -18996,22 +18996,22 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H132" t="n">
         <v>3.6</v>
       </c>
       <c r="I132" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J132" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K132" t="n">
         <v>2.1</v>
       </c>
       <c r="L132" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M132" t="n">
         <v>1.05</v>
@@ -19026,16 +19026,16 @@
         <v>3.4</v>
       </c>
       <c r="Q132" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R132" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S132" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T132" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U132" t="n">
         <v>1.4</v>
@@ -19050,37 +19050,37 @@
         <v>1.8</v>
       </c>
       <c r="Y132" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z132" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA132" t="n">
         <v>15</v>
       </c>
       <c r="AB132" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC132" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD132" t="n">
         <v>41</v>
       </c>
       <c r="AE132" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF132" t="n">
         <v>7.5</v>
       </c>
       <c r="AG132" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH132" t="n">
         <v>51</v>
       </c>
       <c r="AI132" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ132" t="n">
         <v>6.5</v>
@@ -19137,13 +19137,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H133" t="n">
         <v>5.5</v>
       </c>
       <c r="I133" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J133" t="n">
         <v>1.67</v>
@@ -19152,7 +19152,7 @@
         <v>3.25</v>
       </c>
       <c r="L133" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M133" t="n">
         <v>1.01</v>
@@ -19161,49 +19161,49 @@
         <v>34</v>
       </c>
       <c r="O133" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P133" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="R133" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="S133" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T133" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U133" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="V133" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="W133" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X133" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y133" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z133" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA133" t="n">
         <v>11</v>
       </c>
       <c r="AB133" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD133" t="n">
         <v>15</v>
@@ -19212,16 +19212,16 @@
         <v>34</v>
       </c>
       <c r="AF133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG133" t="n">
         <v>15</v>
       </c>
       <c r="AH133" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI133" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ133" t="n">
         <v>41</v>
@@ -19278,22 +19278,22 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H134" t="n">
         <v>5.5</v>
       </c>
       <c r="I134" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J134" t="n">
         <v>1.73</v>
       </c>
       <c r="K134" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L134" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M134" t="n">
         <v>1.01</v>
@@ -19302,76 +19302,76 @@
         <v>34</v>
       </c>
       <c r="O134" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="P134" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="R134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S134" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="T134" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="U134" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="V134" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W134" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X134" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Y134" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z134" t="n">
         <v>15</v>
       </c>
-      <c r="Z134" t="n">
+      <c r="AA134" t="n">
         <v>11</v>
       </c>
-      <c r="AA134" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB134" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC134" t="n">
         <v>11</v>
       </c>
-      <c r="AC134" t="n">
-        <v>10</v>
-      </c>
       <c r="AD134" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE134" t="n">
         <v>34</v>
       </c>
       <c r="AF134" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG134" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH134" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ134" t="n">
         <v>41</v>
       </c>
-      <c r="AI134" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ134" t="n">
-        <v>34</v>
-      </c>
       <c r="AK134" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL134" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM134" t="n">
         <v>81</v>
@@ -19380,7 +19380,7 @@
         <v>41</v>
       </c>
       <c r="AO134" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP134" t="inlineStr"/>
       <c r="AQ134" t="inlineStr"/>
@@ -19449,10 +19449,10 @@
         <v>4</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R135" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S135" t="n">
         <v>2.75</v>
@@ -19461,10 +19461,10 @@
         <v>1.4</v>
       </c>
       <c r="U135" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V135" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W135" t="n">
         <v>1.62</v>
@@ -19473,10 +19473,10 @@
         <v>2.2</v>
       </c>
       <c r="Y135" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z135" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA135" t="n">
         <v>9.5</v>
@@ -19491,7 +19491,7 @@
         <v>23</v>
       </c>
       <c r="AE135" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF135" t="n">
         <v>6.5</v>
@@ -19521,7 +19521,7 @@
         <v>21</v>
       </c>
       <c r="AO135" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP135" t="inlineStr"/>
       <c r="AQ135" t="inlineStr"/>
@@ -19578,10 +19578,10 @@
         <v>3.75</v>
       </c>
       <c r="M136" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N136" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O136" t="n">
         <v>1.29</v>
@@ -19590,10 +19590,10 @@
         <v>3.5</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R136" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S136" t="n">
         <v>3.4</v>
@@ -19647,7 +19647,7 @@
         <v>201</v>
       </c>
       <c r="AJ136" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK136" t="n">
         <v>17</v>
@@ -19701,40 +19701,40 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H137" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I137" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J137" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K137" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M137" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N137" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P137" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R137" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P137" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R137" t="n">
-        <v>1.48</v>
       </c>
       <c r="S137" t="n">
         <v>5</v>
@@ -19743,10 +19743,10 @@
         <v>1.17</v>
       </c>
       <c r="U137" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V137" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W137" t="n">
         <v>2.5</v>
@@ -19764,7 +19764,7 @@
         <v>9.5</v>
       </c>
       <c r="AB137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC137" t="n">
         <v>17</v>
@@ -19773,10 +19773,10 @@
         <v>41</v>
       </c>
       <c r="AE137" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF137" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG137" t="n">
         <v>26</v>
@@ -19786,10 +19786,10 @@
       </c>
       <c r="AI137" t="inlineStr"/>
       <c r="AJ137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK137" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL137" t="n">
         <v>23</v>
@@ -19798,18 +19798,18 @@
         <v>81</v>
       </c>
       <c r="AN137" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO137" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP137" t="inlineStr"/>
       <c r="AQ137" t="inlineStr"/>
       <c r="AR137" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS137" t="n">
         <v>1.98</v>
-      </c>
-      <c r="AS137" t="n">
-        <v>1.88</v>
       </c>
     </row>
     <row r="138">
@@ -19844,16 +19844,16 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H138" t="n">
         <v>3</v>
       </c>
       <c r="I138" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J138" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K138" t="n">
         <v>1.91</v>
@@ -19892,10 +19892,10 @@
         <v>2.2</v>
       </c>
       <c r="W138" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X138" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y138" t="n">
         <v>5.5</v>
@@ -19929,10 +19929,10 @@
       </c>
       <c r="AI138" t="inlineStr"/>
       <c r="AJ138" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK138" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL138" t="n">
         <v>15</v>
@@ -19949,10 +19949,10 @@
       <c r="AP138" t="inlineStr"/>
       <c r="AQ138" t="inlineStr"/>
       <c r="AR138" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="139">
@@ -19987,13 +19987,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H139" t="n">
         <v>3.6</v>
       </c>
       <c r="I139" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J139" t="n">
         <v>3.75</v>
@@ -20002,7 +20002,7 @@
         <v>2.25</v>
       </c>
       <c r="L139" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M139" t="n">
         <v>1.04</v>
@@ -20029,7 +20029,7 @@
         <v>1.4</v>
       </c>
       <c r="U139" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V139" t="n">
         <v>3.25</v>
@@ -20044,7 +20044,7 @@
         <v>12</v>
       </c>
       <c r="Z139" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA139" t="n">
         <v>12</v>
@@ -20053,7 +20053,7 @@
         <v>34</v>
       </c>
       <c r="AC139" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD139" t="n">
         <v>29</v>
@@ -20170,7 +20170,7 @@
         <v>1.44</v>
       </c>
       <c r="U140" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V140" t="n">
         <v>3.4</v>
@@ -20315,7 +20315,7 @@
         <v>1.5</v>
       </c>
       <c r="U141" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V141" t="n">
         <v>3.4</v>
@@ -20414,79 +20414,79 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H142" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I142" t="n">
         <v>3.65</v>
       </c>
       <c r="J142" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="K142" t="n">
         <v>2.12</v>
       </c>
       <c r="L142" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="M142" t="n">
         <v>1.07</v>
       </c>
       <c r="N142" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="O142" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P142" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q142" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R142" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S142" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T142" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U142" t="n">
         <v>1.39</v>
       </c>
       <c r="V142" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="W142" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="X142" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="Y142" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="Z142" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA142" t="n">
         <v>8.5</v>
       </c>
       <c r="AB142" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC142" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD142" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE142" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AF142" t="n">
         <v>6.3</v>
@@ -20501,22 +20501,22 @@
         <v>600</v>
       </c>
       <c r="AJ142" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK142" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL142" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM142" t="n">
         <v>55</v>
       </c>
       <c r="AN142" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO142" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP142" t="inlineStr"/>
       <c r="AQ142" t="inlineStr"/>
@@ -20696,13 +20696,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="H144" t="n">
         <v>3.35</v>
       </c>
       <c r="I144" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J144" t="n">
         <v>2.9</v>
@@ -20711,7 +20711,7 @@
         <v>2.1</v>
       </c>
       <c r="L144" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M144" t="n">
         <v>1.06</v>
@@ -20732,16 +20732,16 @@
         <v>1.85</v>
       </c>
       <c r="S144" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T144" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="U144" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V144" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="W144" t="n">
         <v>1.7</v>
@@ -20750,46 +20750,46 @@
         <v>2.05</v>
       </c>
       <c r="Y144" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z144" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA144" t="n">
         <v>9</v>
       </c>
       <c r="AB144" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC144" t="n">
         <v>18</v>
       </c>
       <c r="AD144" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE144" t="n">
         <v>7.4</v>
       </c>
       <c r="AF144" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AG144" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH144" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI144" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AJ144" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK144" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL144" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM144" t="n">
         <v>35</v>
@@ -20798,7 +20798,7 @@
         <v>24</v>
       </c>
       <c r="AO144" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP144" t="inlineStr"/>
       <c r="AQ144" t="inlineStr"/>
@@ -21137,10 +21137,10 @@
         <v>3.6</v>
       </c>
       <c r="M147" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N147" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O147" t="n">
         <v>1.33</v>
@@ -21149,16 +21149,16 @@
         <v>3.25</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R147" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S147" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T147" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U147" t="n">
         <v>1.44</v>
@@ -21410,10 +21410,10 @@
         <v>2.9</v>
       </c>
       <c r="J149" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K149" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L149" t="n">
         <v>3.6</v>
@@ -21422,7 +21422,7 @@
         <v>1.07</v>
       </c>
       <c r="N149" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O149" t="n">
         <v>1.36</v>
@@ -21443,22 +21443,22 @@
         <v>1.25</v>
       </c>
       <c r="U149" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="V149" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W149" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X149" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y149" t="n">
         <v>7.5</v>
       </c>
       <c r="Z149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA149" t="n">
         <v>10</v>
@@ -21473,7 +21473,7 @@
         <v>34</v>
       </c>
       <c r="AE149" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF149" t="n">
         <v>6</v>
@@ -21485,10 +21485,10 @@
         <v>51</v>
       </c>
       <c r="AI149" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ149" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK149" t="n">
         <v>13</v>
@@ -21503,7 +21503,7 @@
         <v>26</v>
       </c>
       <c r="AO149" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP149" t="inlineStr"/>
       <c r="AQ149" t="inlineStr"/>
@@ -21634,7 +21634,7 @@
         <v>1.06</v>
       </c>
       <c r="N151" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O151" t="n">
         <v>1.33</v>
@@ -21655,10 +21655,10 @@
         <v>1.25</v>
       </c>
       <c r="U151" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V151" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W151" t="n">
         <v>1.83</v>
@@ -21670,7 +21670,7 @@
         <v>7</v>
       </c>
       <c r="Z151" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA151" t="n">
         <v>9</v>
@@ -21688,16 +21688,16 @@
         <v>9.5</v>
       </c>
       <c r="AF151" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG151" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH151" t="n">
         <v>51</v>
       </c>
       <c r="AI151" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ151" t="n">
         <v>9.5</v>
@@ -21763,19 +21763,19 @@
         <v>1.95</v>
       </c>
       <c r="J152" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K152" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L152" t="n">
         <v>2.75</v>
       </c>
       <c r="M152" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N152" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O152" t="n">
         <v>1.4</v>
@@ -21796,7 +21796,7 @@
         <v>1.2</v>
       </c>
       <c r="U152" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V152" t="n">
         <v>2.5</v>
@@ -21808,10 +21808,10 @@
         <v>1.73</v>
       </c>
       <c r="Y152" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z152" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA152" t="n">
         <v>13</v>
@@ -21826,13 +21826,13 @@
         <v>41</v>
       </c>
       <c r="AE152" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF152" t="n">
         <v>6.5</v>
       </c>
       <c r="AG152" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH152" t="n">
         <v>67</v>
@@ -21841,7 +21841,7 @@
         <v>301</v>
       </c>
       <c r="AJ152" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK152" t="n">
         <v>8.5</v>
@@ -21853,7 +21853,7 @@
         <v>17</v>
       </c>
       <c r="AN152" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO152" t="n">
         <v>34</v>
@@ -21907,7 +21907,7 @@
         <v>3.4</v>
       </c>
       <c r="K153" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="L153" t="n">
         <v>3.35</v>
@@ -21915,10 +21915,10 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P153" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Q153" t="n">
         <v>2.12</v>
@@ -21960,7 +21960,7 @@
         <v>27</v>
       </c>
       <c r="AD153" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE153" t="n">
         <v>6.8</v>
@@ -21993,7 +21993,7 @@
         <v>26</v>
       </c>
       <c r="AO153" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP153" t="inlineStr"/>
       <c r="AQ153" t="inlineStr"/>
@@ -22058,7 +22058,7 @@
         <v>2.9</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R154" t="n">
         <v>1.7</v>
